--- a/category/资产配置分类表.xlsx
+++ b/category/资产配置分类表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\deal-record\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\deal-record\category\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D24DF3-582D-4942-9182-4FAA7034E31D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D53E48-EEDE-4276-AC4A-FEB078EDE748}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A2CED1EC-343A-4CFC-976C-17F1726B3D68}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="247">
   <si>
     <t>无息外借款</t>
   </si>
@@ -572,10 +572,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>交银裕盈纯债债券A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>易方达中证海外联接人民币A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -657,6 +653,270 @@
   </si>
   <si>
     <t>东方红中国优势混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金简称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300ETF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银河300价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申万300价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建信60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建信120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发养老</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天弘医药100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发环保</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏50AH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建信500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发500C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发500A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创金1000C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华宝1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达证券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达消费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商白酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华宝香港中小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华安纳指100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达标普信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华安德国30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方红混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安信稳健混合C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生鹏程混合C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹏扬泓利债C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长安鑫益混合C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新华纯债C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大成短融债E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达安瑞债C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴全可转债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交银信用债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华安石油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>景顺500低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达创业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发创业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大成红利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国红利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达红利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华宝标普红利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医药ETF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发医药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发传媒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发金融</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天弘银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏恒生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交银外互联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达外互联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博时标普500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发美房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交银周期灵活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交银新回报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交银多策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工银双利债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发7-10年债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交银稳鑫短债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交银裕盈纯债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达安心债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长信可转债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏收益债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华安黄金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1097,2421 +1357,2714 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7002D332-7AD6-42B5-A99D-39647A47F5B6}">
-  <dimension ref="A1:G107"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63:G63"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>130</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="3">
         <v>510050</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>111</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="3">
         <v>1051</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>111</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" s="3">
         <v>501050</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>112</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="3">
         <v>510300</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>113</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="3">
         <v>100038</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>113</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="3">
         <v>51</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>113</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C8" s="3">
         <v>519671</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>114</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" s="3">
         <v>310398</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>114</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" s="3">
         <v>530015</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>115</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C11" s="3">
         <v>70023</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>116</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="3">
         <v>159902</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>117</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="3">
         <v>510500</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>121</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="H13" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" s="3">
         <v>478</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>121</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C15" s="3">
         <v>1052</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>121</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C16" s="3">
         <v>161017</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <v>121</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C17" s="3">
         <v>2903</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <v>121</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" s="3">
         <v>162711</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18" s="1">
         <v>121</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C19" s="3">
         <v>3318</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <v>122</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="3">
         <v>512100</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G20" s="1">
         <v>123</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="H20" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C21" s="3">
         <v>3647</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21" s="1">
         <v>123</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C22" s="3">
         <v>162413</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F22" s="1">
+      <c r="G22" s="1">
         <v>123</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="3">
         <v>159915</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F23" s="1">
+      <c r="G23" s="1">
         <v>124</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="H23" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C24" s="3">
         <v>110026</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F24" s="1">
+      <c r="G24" s="1">
         <v>124</v>
       </c>
-      <c r="G24" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C25" s="3">
         <v>3765</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F25" s="1">
+      <c r="G25" s="1">
         <v>124</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C26" s="3">
         <v>90010</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F26" s="1">
+      <c r="G26" s="1">
         <v>131</v>
       </c>
-      <c r="G26" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C27" s="3">
         <v>100032</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F27" s="1">
+      <c r="G27" s="1">
         <v>131</v>
       </c>
-      <c r="G27" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C28" s="3">
+        <v>515180</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28" s="1">
+        <v>131</v>
+      </c>
+      <c r="H28" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="B28" s="3">
-        <v>515180</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F28" s="1">
-        <v>131</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C29" s="3">
         <v>501029</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F29" s="1">
+      <c r="G29" s="1">
         <v>132</v>
       </c>
-      <c r="G29" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C30" s="3">
         <v>968</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F30" s="1">
+      <c r="G30" s="1">
         <v>141</v>
       </c>
-      <c r="G30" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C31" s="3">
         <v>1550</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F31" s="1">
+      <c r="G31" s="1">
         <v>142</v>
       </c>
-      <c r="G31" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H31" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C32" s="3">
         <v>159938</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F32" s="1">
+      <c r="G32" s="1">
         <v>142</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="H32" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C33" s="3">
         <v>1180</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F33" s="1">
+      <c r="G33" s="1">
         <v>142</v>
       </c>
-      <c r="G33" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="3">
         <v>512580</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F34" s="1">
+      <c r="G34" s="1">
         <v>143</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="H34" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C35" s="3">
         <v>1064</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F35" s="1">
+      <c r="G35" s="1">
         <v>143</v>
       </c>
-      <c r="G35" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="3">
         <v>512980</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F36" s="1">
+      <c r="G36" s="1">
         <v>144</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="H36" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C37" s="3">
         <v>4752</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F37" s="1">
+      <c r="G37" s="1">
         <v>144</v>
       </c>
-      <c r="G37" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H37" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="3">
         <v>512880</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F38" s="1">
+      <c r="G38" s="1">
         <v>145</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="H38" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C39" s="3">
         <v>502010</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F39" s="1">
+      <c r="G39" s="1">
         <v>145</v>
       </c>
-      <c r="G39" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H39" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C40" s="3">
         <v>1594</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="F40" s="1">
+      <c r="G40" s="1">
         <v>146</v>
       </c>
-      <c r="G40" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H40" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C41" s="3">
         <v>1469</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F41" s="1">
+      <c r="G41" s="1">
         <v>147</v>
       </c>
-      <c r="G41" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H41" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C42" s="3">
         <v>110022</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F42" s="1">
+      <c r="G42" s="1">
         <v>148</v>
       </c>
-      <c r="G42" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H42" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C43" s="3">
         <v>161725</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F43" s="1">
+      <c r="G43" s="1">
         <v>148</v>
       </c>
-      <c r="G43" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H43" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="3">
         <v>600861</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D44" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="1">
         <v>151</v>
       </c>
-      <c r="G44" s="7"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="3">
         <v>836</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D45" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="1">
         <v>151</v>
       </c>
-      <c r="G45" s="7"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="3">
         <v>600879</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D46" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="1">
         <v>151</v>
       </c>
-      <c r="G46" s="7"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>13</v>
+      <c r="C47" s="3">
+        <v>17</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="1">
         <v>151</v>
       </c>
-      <c r="G47" s="7"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="3">
         <v>601939</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D48" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="1">
         <v>151</v>
       </c>
-      <c r="G48" s="7"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="3">
         <v>428</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D49" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="1">
         <v>151</v>
       </c>
-      <c r="G49" s="7"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="3">
         <v>600857</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D50" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="1">
         <v>151</v>
       </c>
-      <c r="G50" s="7"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H50" s="7"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C51" s="3">
         <v>71</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F51" s="1">
+      <c r="G51" s="1">
         <v>211</v>
       </c>
-      <c r="G51" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H51" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="3">
         <v>159920</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F52" s="1">
+      <c r="G52" s="1">
         <v>211</v>
       </c>
-      <c r="G52" s="6" t="s">
+      <c r="H52" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="3">
         <v>510900</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F53" s="1">
+      <c r="G53" s="1">
         <v>212</v>
       </c>
-      <c r="G53" s="6" t="s">
+      <c r="H53" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C54" s="3">
         <v>501021</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="F54" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F54" s="1">
+      <c r="G54" s="1">
         <v>213</v>
       </c>
-      <c r="G54" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H54" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C55" s="3">
         <v>164906</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="F55" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F55" s="1">
+      <c r="G55" s="1">
         <v>221</v>
       </c>
-      <c r="G55" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H55" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B56" s="3">
+        <v>160</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C56" s="3">
         <v>6327</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="F56" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F56" s="1">
+      <c r="G56" s="1">
         <v>221</v>
       </c>
-      <c r="G56" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H56" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B57" s="3">
+        <v>179</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C57" s="3">
         <v>40046</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F57" s="1">
+      <c r="F57" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G57" s="1">
         <v>312</v>
       </c>
-      <c r="G57" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H57" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C58" s="3">
+        <v>50025</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B58" s="3">
-        <v>50025</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F58" s="1">
+      <c r="G58" s="1">
         <v>313</v>
       </c>
-      <c r="G58" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H58" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C59" s="3">
         <v>179</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="F59" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F59" s="1">
+      <c r="G59" s="1">
         <v>314</v>
       </c>
-      <c r="G59" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H59" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B60" s="3">
+        <v>171</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C60" s="3">
         <v>161128</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F60" s="1">
+      <c r="F60" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G60" s="1">
         <v>315</v>
       </c>
-      <c r="G60" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H60" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C61" s="3">
         <v>614</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="F61" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F61" s="1">
+      <c r="G61" s="1">
         <v>321</v>
       </c>
-      <c r="G61" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H61" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C62" s="3">
+        <v>513520</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B62" s="3">
-        <v>513520</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D62" s="1" t="s">
+      <c r="F62" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F62" s="1">
+      <c r="G62" s="1">
         <v>331</v>
       </c>
-      <c r="G62" s="9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H62" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B63" s="3">
+        <v>180</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C63" s="3">
         <v>1112</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>157</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>147</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>148</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>411</v>
       </c>
-      <c r="G63" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H63" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>141</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64" s="3">
         <v>519700</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>157</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>147</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>148</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>411</v>
       </c>
-      <c r="G64" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H64" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>158</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" t="s">
+        <v>236</v>
+      </c>
+      <c r="C65" s="3">
         <v>519738</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>157</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>147</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>149</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>411</v>
       </c>
-      <c r="G65" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H65" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>144</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" t="s">
+        <v>237</v>
+      </c>
+      <c r="C66" s="3">
         <v>519752</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>157</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>147</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>149</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>412</v>
       </c>
-      <c r="G66" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H66" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>145</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" t="s">
+        <v>238</v>
+      </c>
+      <c r="C67" s="3">
         <v>519755</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>157</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>147</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>149</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>412</v>
       </c>
-      <c r="G67" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H67" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>163</v>
+      </c>
+      <c r="B68" t="s">
+        <v>239</v>
+      </c>
+      <c r="C68" s="3">
+        <v>485011</v>
+      </c>
+      <c r="D68" t="s">
+        <v>157</v>
+      </c>
+      <c r="E68" t="s">
+        <v>147</v>
+      </c>
+      <c r="F68" t="s">
+        <v>149</v>
+      </c>
+      <c r="G68">
+        <v>412</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>164</v>
       </c>
-      <c r="B68" s="3">
-        <v>485011</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="B69" t="s">
+        <v>209</v>
+      </c>
+      <c r="C69" s="3">
+        <v>1338</v>
+      </c>
+      <c r="D69" t="s">
         <v>157</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E69" t="s">
         <v>147</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F69" t="s">
         <v>149</v>
       </c>
-      <c r="F68">
+      <c r="G69">
         <v>412</v>
       </c>
-      <c r="G68" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="H69" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>165</v>
       </c>
-      <c r="B69" s="3">
-        <v>1338</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="B70" t="s">
+        <v>210</v>
+      </c>
+      <c r="C70" s="3">
+        <v>7749</v>
+      </c>
+      <c r="D70" t="s">
         <v>157</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E70" t="s">
         <v>147</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F70" t="s">
         <v>149</v>
       </c>
-      <c r="F69">
+      <c r="G70">
         <v>412</v>
       </c>
-      <c r="G69" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+      <c r="H70" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>166</v>
       </c>
-      <c r="B70" s="3">
-        <v>7749</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="B71" t="s">
+        <v>211</v>
+      </c>
+      <c r="C71" s="3">
+        <v>6060</v>
+      </c>
+      <c r="D71" t="s">
         <v>157</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E71" t="s">
         <v>147</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F71" t="s">
         <v>149</v>
       </c>
-      <c r="F70">
+      <c r="G71">
         <v>412</v>
       </c>
-      <c r="G70" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="H71" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>167</v>
       </c>
-      <c r="B71" s="3">
-        <v>6060</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="B72" t="s">
+        <v>212</v>
+      </c>
+      <c r="C72" s="3">
+        <v>2147</v>
+      </c>
+      <c r="D72" t="s">
         <v>157</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E72" t="s">
         <v>147</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F72" t="s">
         <v>149</v>
       </c>
-      <c r="F71">
+      <c r="G72">
         <v>412</v>
       </c>
-      <c r="G71" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>168</v>
-      </c>
-      <c r="B72" s="3">
-        <v>2147</v>
-      </c>
-      <c r="C72" t="s">
-        <v>157</v>
-      </c>
-      <c r="D72" t="s">
-        <v>147</v>
-      </c>
-      <c r="E72" t="s">
-        <v>149</v>
-      </c>
-      <c r="F72">
-        <v>412</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H72" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C73" s="3">
         <v>3376</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="F73" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F73" s="1">
+      <c r="G73" s="1">
         <v>511</v>
       </c>
-      <c r="G73" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H73" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B74" s="3">
+        <v>161</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C74" s="3">
         <v>519153</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="F74" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F74" s="1">
+      <c r="G74" s="1">
         <v>511</v>
       </c>
-      <c r="G74" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H74" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C75" s="3">
         <v>2086</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="F75" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F75" s="1">
+      <c r="G75" s="1">
         <v>511</v>
       </c>
-      <c r="G75" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H75" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B76" s="3">
+        <v>162</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C76" s="3">
         <v>6320</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="F76" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F76" s="1">
+      <c r="G76" s="1">
         <v>511</v>
       </c>
-      <c r="G76" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H76" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C77" s="3">
         <v>204001</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="F77" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F77" s="1">
+      <c r="G77" s="1">
         <v>511</v>
       </c>
-      <c r="G77" s="6"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H77" s="6"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C78" s="3">
         <v>204007</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="E78" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="F78" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F78" s="1">
+      <c r="G78" s="1">
         <v>511</v>
       </c>
-      <c r="G78" s="6"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H78" s="6"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C79" s="3">
         <v>131810</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="E79" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="F79" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F79" s="1">
+      <c r="G79" s="1">
         <v>511</v>
       </c>
-      <c r="G79" s="6"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H79" s="6"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C80" s="3">
         <v>131800</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="E80" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="F80" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F80" s="1">
+      <c r="G80" s="1">
         <v>511</v>
       </c>
-      <c r="G80" s="6"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H80" s="6"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C81" s="3">
         <v>511010</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="F81" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F81" s="1">
+      <c r="G81" s="1">
         <v>511</v>
       </c>
-      <c r="G81" s="6" t="s">
+      <c r="H81" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B82" s="3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>140</v>
+      </c>
+      <c r="B82" t="s">
+        <v>241</v>
+      </c>
+      <c r="C82" s="3">
+        <v>6793</v>
+      </c>
+      <c r="D82" t="s">
+        <v>31</v>
+      </c>
+      <c r="E82" t="s">
+        <v>34</v>
+      </c>
+      <c r="F82" t="s">
+        <v>33</v>
+      </c>
+      <c r="G82" s="1">
+        <v>512</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>142</v>
+      </c>
+      <c r="B83" t="s">
+        <v>142</v>
+      </c>
+      <c r="C83" s="3">
+        <v>519718</v>
+      </c>
+      <c r="D83" t="s">
+        <v>31</v>
+      </c>
+      <c r="E83" t="s">
+        <v>34</v>
+      </c>
+      <c r="F83" t="s">
+        <v>33</v>
+      </c>
+      <c r="G83" s="1">
+        <v>512</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>143</v>
+      </c>
+      <c r="B84" t="s">
+        <v>143</v>
+      </c>
+      <c r="C84" s="3">
+        <v>519723</v>
+      </c>
+      <c r="D84" t="s">
+        <v>31</v>
+      </c>
+      <c r="E84" t="s">
+        <v>34</v>
+      </c>
+      <c r="F84" t="s">
+        <v>33</v>
+      </c>
+      <c r="G84" s="1">
+        <v>512</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>146</v>
+      </c>
+      <c r="B85" t="s">
+        <v>242</v>
+      </c>
+      <c r="C85">
         <v>519776</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="D85" t="s">
         <v>31</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="E85" t="s">
         <v>34</v>
       </c>
-      <c r="E82" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F82" s="1">
-        <v>511</v>
-      </c>
-      <c r="G82" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>140</v>
-      </c>
-      <c r="B83" s="3">
-        <v>6793</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="F85" t="s">
+        <v>33</v>
+      </c>
+      <c r="G85" s="1">
+        <v>512</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C86" s="3">
+        <v>340001</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E86" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F86" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F83" s="1">
+      <c r="G86" s="1">
         <v>512</v>
       </c>
-      <c r="G83" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>142</v>
-      </c>
-      <c r="B84" s="3">
-        <v>519718</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="H86" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C87" s="3">
+        <v>110027</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E87" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F87" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F84" s="1">
+      <c r="G87" s="1">
         <v>512</v>
       </c>
-      <c r="G84" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>143</v>
-      </c>
-      <c r="B85" s="3">
-        <v>519723</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="H87" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C88" s="3">
+        <v>164902</v>
+      </c>
+      <c r="D88" t="s">
         <v>31</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E88" t="s">
         <v>34</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F88" t="s">
         <v>33</v>
       </c>
-      <c r="F85" s="1">
+      <c r="G88" s="1">
         <v>512</v>
       </c>
-      <c r="G85" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>146</v>
-      </c>
-      <c r="B86">
-        <v>519776</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="H88" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C89" s="3">
+        <v>519977</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E89" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F89" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F86" s="1">
+      <c r="G89" s="1">
         <v>512</v>
       </c>
-      <c r="G86" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B87" s="3">
-        <v>340001</v>
-      </c>
-      <c r="C87" s="1" t="s">
+      <c r="H89" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C90" s="3">
+        <v>1061</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F87" s="1">
-        <v>512</v>
-      </c>
-      <c r="G87" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B88" s="3">
-        <v>110027</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F88" s="1">
-        <v>512</v>
-      </c>
-      <c r="G88" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B89" s="3">
-        <v>164902</v>
-      </c>
-      <c r="C89" t="s">
-        <v>31</v>
-      </c>
-      <c r="D89" t="s">
-        <v>34</v>
-      </c>
-      <c r="E89" t="s">
-        <v>33</v>
-      </c>
-      <c r="F89" s="1">
-        <v>512</v>
-      </c>
-      <c r="G89" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B90" s="3">
-        <v>519977</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="E90" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F90" s="1">
-        <v>512</v>
-      </c>
-      <c r="G90" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G90" s="1">
+        <v>521</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B91" s="3">
-        <v>1061</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C91" s="3">
+        <v>518880</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F91" s="1">
-        <v>521</v>
-      </c>
-      <c r="G91" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G91" s="1">
+        <v>611</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B92" s="3">
-        <v>518880</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C92" s="3">
+        <v>216</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E92" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F92" s="1">
+      <c r="G92" s="1">
         <v>611</v>
       </c>
-      <c r="G92" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H92" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B93" s="3">
-        <v>216</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C93" s="3">
+        <v>999979</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F93" s="1">
-        <v>611</v>
-      </c>
-      <c r="G93" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G93" s="1">
+        <v>612</v>
+      </c>
+      <c r="H93" s="7"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B94" s="3">
-        <v>999979</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>22</v>
+        <v>154</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C94" s="3">
+        <v>162411</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F94" s="1">
-        <v>612</v>
-      </c>
-      <c r="G94" s="7"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G94" s="1">
+        <v>613</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B95" s="3">
-        <v>162411</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C95" s="3">
+        <v>501018</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E95" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F95" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F95" s="1">
+      <c r="G95" s="1">
         <v>613</v>
       </c>
-      <c r="G95" s="6" t="s">
+      <c r="H95" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B96" s="3">
-        <v>501018</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>22</v>
+        <v>172</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C96" s="3">
+        <v>160416</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E96" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F96" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F96" s="1">
+      <c r="G96" s="1">
         <v>613</v>
       </c>
-      <c r="G96" s="6" t="s">
+      <c r="H96" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B97" s="3">
-        <v>160416</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>22</v>
+        <v>0</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97" s="3">
+        <v>999988</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F97" s="1">
-        <v>613</v>
-      </c>
-      <c r="G97" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G97" s="1">
+        <v>988</v>
+      </c>
+      <c r="H97" s="7"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B98" s="3">
-        <v>999988</v>
-      </c>
-      <c r="C98" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" s="3">
+        <v>999989</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D98" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="E98" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F98" s="1">
-        <v>988</v>
-      </c>
-      <c r="G98" s="7"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G98" s="1">
+        <v>989</v>
+      </c>
+      <c r="H98" s="7"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B99" s="3">
-        <v>999989</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>135</v>
+        <v>2</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C99" s="3">
+        <v>999997</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>136</v>
+        <v>5</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F99" s="1">
-        <v>989</v>
-      </c>
-      <c r="G99" s="7"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G99" s="1">
+        <v>997</v>
+      </c>
+      <c r="H99" s="7"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B100" s="3">
-        <v>999997</v>
-      </c>
-      <c r="C100" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" s="3">
+        <v>999998</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D100" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="E100" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F100" s="1">
-        <v>997</v>
-      </c>
-      <c r="G100" s="7"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G100" s="1">
+        <v>998</v>
+      </c>
+      <c r="H100" s="7"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B101" s="3">
-        <v>999998</v>
-      </c>
-      <c r="C101" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" s="3">
+        <v>999999</v>
+      </c>
+      <c r="D101" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="E101" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F101" s="1">
-        <v>998</v>
-      </c>
-      <c r="G101" s="7"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G101" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B102" s="3">
-        <v>999999</v>
-      </c>
-      <c r="C102" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" s="3">
+        <v>511990</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="E102" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="F102" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F102" s="1">
+      <c r="G102" s="1">
         <v>999</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H102" s="7"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B103" s="3">
-        <v>511990</v>
-      </c>
-      <c r="C103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="3">
+        <v>940018</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="E103" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="F103" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F103" s="1">
+      <c r="G103" s="1">
         <v>999</v>
       </c>
-      <c r="G103" s="7"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H103" s="7"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B104" s="3">
-        <v>940018</v>
-      </c>
-      <c r="C104" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" s="3">
+        <v>511980</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="E104" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="F104" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F104" s="1">
+      <c r="G104" s="1">
         <v>999</v>
       </c>
-      <c r="G104" s="7"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H104" s="7"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B105" s="3">
-        <v>511980</v>
-      </c>
-      <c r="C105" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" s="3">
+        <v>511880</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="E105" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="F105" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F105" s="1">
+      <c r="G105" s="1">
         <v>999</v>
       </c>
-      <c r="G105" s="7"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B106" s="3">
-        <v>511880</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F106" s="1">
-        <v>999</v>
-      </c>
-      <c r="G106" s="7"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G107" s="7"/>
+      <c r="H105" s="7"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H106" s="7"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G106">
-    <sortCondition ref="F35"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H105">
+    <sortCondition ref="G35"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/category/资产配置分类表.xlsx
+++ b/category/资产配置分类表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\deal-record\category\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D53E48-EEDE-4276-AC4A-FEB078EDE748}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE67DEC-F4D3-4EAD-A2A1-C8BC5450A557}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A2CED1EC-343A-4CFC-976C-17F1726B3D68}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="256">
   <si>
     <t>无息外借款</t>
   </si>
@@ -919,6 +919,33 @@
     <t>华安黄金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>易方达上证50指数A</t>
+  </si>
+  <si>
+    <t>易方达50</t>
+  </si>
+  <si>
+    <t>场外</t>
+  </si>
+  <si>
+    <t>广发趋势优选灵活配置混合C</t>
+  </si>
+  <si>
+    <t>广发趋势混合C</t>
+  </si>
+  <si>
+    <t>混合型</t>
+  </si>
+  <si>
+    <t>偏股</t>
+  </si>
+  <si>
+    <t>南方宝元债券C</t>
+  </si>
+  <si>
+    <t>南方宝元债C</t>
+  </si>
 </sst>
 </file>
 
@@ -927,7 +954,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -997,6 +1024,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1020,7 +1054,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1043,6 +1077,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1357,10 +1392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7002D332-7AD6-42B5-A99D-39647A47F5B6}">
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1452,13 +1487,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>122</v>
+        <v>247</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>191</v>
+        <v>248</v>
       </c>
       <c r="C4" s="3">
-        <v>501050</v>
+        <v>110003</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -1467,24 +1502,24 @@
         <v>109</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G4" s="1">
-        <v>112</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>152</v>
+        <v>111</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="C5" s="3">
-        <v>510300</v>
+        <v>501050</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -1493,24 +1528,24 @@
         <v>109</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G5" s="1">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C6" s="3">
-        <v>100038</v>
+        <v>510300</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -1525,18 +1560,18 @@
         <v>113</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" s="3">
-        <v>51</v>
+        <v>100038</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
@@ -1556,13 +1591,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="C8" s="3">
-        <v>519671</v>
+        <v>51</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -1571,10 +1606,10 @@
         <v>109</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G8" s="1">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>152</v>
@@ -1582,13 +1617,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C9" s="3">
-        <v>310398</v>
+        <v>519671</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -1608,13 +1643,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C10" s="3">
-        <v>530015</v>
+        <v>310398</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>13</v>
@@ -1623,10 +1658,10 @@
         <v>109</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G10" s="1">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>152</v>
@@ -1634,13 +1669,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C11" s="3">
-        <v>70023</v>
+        <v>530015</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -1649,10 +1684,10 @@
         <v>109</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G11" s="1">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>152</v>
@@ -1660,13 +1695,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="C12" s="3">
-        <v>159902</v>
+        <v>70023</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -1675,36 +1710,36 @@
         <v>109</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G12" s="1">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C13" s="3">
-        <v>510500</v>
+        <v>159902</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G13" s="1">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>151</v>
@@ -1712,13 +1747,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>194</v>
+        <v>107</v>
       </c>
       <c r="C14" s="3">
-        <v>478</v>
+        <v>510500</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -1733,18 +1768,18 @@
         <v>121</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C15" s="3">
-        <v>1052</v>
+        <v>478</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>13</v>
@@ -1764,13 +1799,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C16" s="3">
-        <v>161017</v>
+        <v>1052</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -1790,13 +1825,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C17" s="3">
-        <v>2903</v>
+        <v>161017</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
@@ -1816,13 +1851,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C18" s="3">
-        <v>162711</v>
+        <v>2903</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>13</v>
@@ -1842,13 +1877,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="C19" s="3">
-        <v>3318</v>
+        <v>162711</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
@@ -1857,10 +1892,10 @@
         <v>92</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G19" s="1">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>152</v>
@@ -1868,13 +1903,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>98</v>
+        <v>219</v>
       </c>
       <c r="C20" s="3">
-        <v>512100</v>
+        <v>3318</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
@@ -1883,24 +1918,24 @@
         <v>92</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G20" s="1">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>199</v>
+        <v>98</v>
       </c>
       <c r="C21" s="3">
-        <v>3647</v>
+        <v>512100</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
@@ -1915,18 +1950,18 @@
         <v>123</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C22" s="3">
-        <v>162413</v>
+        <v>3647</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>13</v>
@@ -1946,13 +1981,13 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>91</v>
+        <v>200</v>
       </c>
       <c r="C23" s="3">
-        <v>159915</v>
+        <v>162413</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>13</v>
@@ -1961,24 +1996,24 @@
         <v>92</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G23" s="1">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>220</v>
+        <v>91</v>
       </c>
       <c r="C24" s="3">
-        <v>110026</v>
+        <v>159915</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>13</v>
@@ -1993,18 +2028,18 @@
         <v>124</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C25" s="3">
-        <v>3765</v>
+        <v>110026</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>13</v>
@@ -2024,25 +2059,25 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C26" s="3">
-        <v>90010</v>
+        <v>3765</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G26" s="1">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>152</v>
@@ -2050,13 +2085,13 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C27" s="3">
-        <v>100032</v>
+        <v>90010</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>13</v>
@@ -2076,13 +2111,13 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>168</v>
+        <v>89</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C28" s="3">
-        <v>515180</v>
+        <v>100032</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>13</v>
@@ -2096,19 +2131,19 @@
       <c r="G28" s="1">
         <v>131</v>
       </c>
-      <c r="H28" s="9" t="s">
-        <v>169</v>
+      <c r="H28" s="6" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C29" s="3">
-        <v>501029</v>
+        <v>515180</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>13</v>
@@ -2117,36 +2152,36 @@
         <v>86</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G29" s="1">
-        <v>132</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>152</v>
+        <v>131</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="C30" s="3">
-        <v>968</v>
+        <v>501029</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G30" s="1">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>152</v>
@@ -2154,13 +2189,13 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C31" s="3">
-        <v>1550</v>
+        <v>968</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>13</v>
@@ -2169,10 +2204,10 @@
         <v>64</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G31" s="1">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>152</v>
@@ -2180,13 +2215,13 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="C32" s="3">
-        <v>159938</v>
+        <v>1550</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>13</v>
@@ -2201,18 +2236,18 @@
         <v>142</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C33" s="3">
-        <v>1180</v>
+        <v>159938</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>13</v>
@@ -2227,18 +2262,18 @@
         <v>142</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>78</v>
+        <v>227</v>
       </c>
       <c r="C34" s="3">
-        <v>512580</v>
+        <v>1180</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>13</v>
@@ -2247,24 +2282,24 @@
         <v>64</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G34" s="1">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>189</v>
+        <v>78</v>
       </c>
       <c r="C35" s="3">
-        <v>1064</v>
+        <v>512580</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>13</v>
@@ -2279,18 +2314,18 @@
         <v>143</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>75</v>
+        <v>189</v>
       </c>
       <c r="C36" s="3">
-        <v>512980</v>
+        <v>1064</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>13</v>
@@ -2299,24 +2334,24 @@
         <v>64</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G36" s="1">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>228</v>
+        <v>75</v>
       </c>
       <c r="C37" s="3">
-        <v>4752</v>
+        <v>512980</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>13</v>
@@ -2331,18 +2366,18 @@
         <v>144</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>72</v>
+        <v>228</v>
       </c>
       <c r="C38" s="3">
-        <v>512880</v>
+        <v>4752</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>13</v>
@@ -2351,24 +2386,24 @@
         <v>64</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G38" s="1">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>201</v>
+        <v>72</v>
       </c>
       <c r="C39" s="3">
-        <v>502010</v>
+        <v>512880</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>13</v>
@@ -2383,18 +2418,18 @@
         <v>145</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="C40" s="3">
-        <v>1594</v>
+        <v>502010</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>13</v>
@@ -2403,10 +2438,10 @@
         <v>64</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>156</v>
+        <v>70</v>
       </c>
       <c r="G40" s="1">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>152</v>
@@ -2414,13 +2449,13 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>69</v>
+        <v>155</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C41" s="3">
-        <v>1469</v>
+        <v>1594</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>13</v>
@@ -2429,10 +2464,10 @@
         <v>64</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>68</v>
+        <v>156</v>
       </c>
       <c r="G41" s="1">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>152</v>
@@ -2440,13 +2475,13 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="C42" s="3">
-        <v>110022</v>
+        <v>1469</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>13</v>
@@ -2455,10 +2490,10 @@
         <v>64</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G42" s="1">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>152</v>
@@ -2466,13 +2501,13 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C43" s="3">
-        <v>161725</v>
+        <v>110022</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>13</v>
@@ -2492,37 +2527,39 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>20</v>
+        <v>203</v>
       </c>
       <c r="C44" s="3">
-        <v>600861</v>
+        <v>161725</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="G44" s="1">
-        <v>151</v>
-      </c>
-      <c r="H44" s="7"/>
+        <v>148</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C45" s="3">
-        <v>836</v>
+        <v>600861</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>13</v>
@@ -2540,13 +2577,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C46" s="3">
-        <v>600879</v>
+        <v>836</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>13</v>
@@ -2564,13 +2601,13 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C47" s="3">
-        <v>17</v>
+        <v>600879</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -2588,13 +2625,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C48" s="3">
-        <v>601939</v>
+        <v>17</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>13</v>
@@ -2612,13 +2649,13 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C49" s="3">
-        <v>428</v>
+        <v>601939</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>13</v>
@@ -2636,13 +2673,13 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C50" s="3">
-        <v>600857</v>
+        <v>428</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>13</v>
@@ -2660,39 +2697,37 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>231</v>
+        <v>14</v>
       </c>
       <c r="C51" s="3">
-        <v>71</v>
+        <v>600857</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="G51" s="1">
-        <v>211</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>152</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="H51" s="7"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>62</v>
+        <v>231</v>
       </c>
       <c r="C52" s="3">
-        <v>159920</v>
+        <v>71</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>54</v>
@@ -2707,18 +2742,18 @@
         <v>211</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C53" s="3">
-        <v>510900</v>
+        <v>159920</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>54</v>
@@ -2727,10 +2762,10 @@
         <v>57</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G53" s="1">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>151</v>
@@ -2738,13 +2773,13 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>204</v>
+        <v>60</v>
       </c>
       <c r="C54" s="3">
-        <v>501021</v>
+        <v>510900</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>54</v>
@@ -2753,36 +2788,36 @@
         <v>57</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G54" s="1">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="C55" s="3">
-        <v>164906</v>
+        <v>501021</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G55" s="1">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>152</v>
@@ -2790,13 +2825,13 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C56" s="3">
-        <v>6327</v>
+        <v>164906</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>54</v>
@@ -2816,25 +2851,25 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="C57" s="3">
-        <v>40046</v>
+        <v>6327</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>178</v>
+        <v>52</v>
       </c>
       <c r="G57" s="1">
-        <v>312</v>
+        <v>221</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>152</v>
@@ -2842,13 +2877,13 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="C58" s="3">
-        <v>50025</v>
+        <v>40046</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>47</v>
@@ -2857,10 +2892,10 @@
         <v>50</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G58" s="1">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H58" s="6" t="s">
         <v>152</v>
@@ -2868,13 +2903,13 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>51</v>
+        <v>176</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C59" s="3">
-        <v>179</v>
+        <v>50025</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>47</v>
@@ -2883,10 +2918,10 @@
         <v>50</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>49</v>
+        <v>177</v>
       </c>
       <c r="G59" s="1">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>152</v>
@@ -2894,13 +2929,13 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>171</v>
+        <v>51</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="C60" s="3">
-        <v>161128</v>
+        <v>179</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>47</v>
@@ -2909,10 +2944,10 @@
         <v>50</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>170</v>
+        <v>49</v>
       </c>
       <c r="G60" s="1">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>152</v>
@@ -2920,25 +2955,25 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>48</v>
+        <v>171</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C61" s="3">
-        <v>614</v>
+        <v>161128</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="G61" s="1">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>152</v>
@@ -2946,65 +2981,65 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>173</v>
+        <v>48</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="C62" s="3">
-        <v>513520</v>
+        <v>614</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>174</v>
+        <v>46</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="G62" s="1">
-        <v>331</v>
-      </c>
-      <c r="H62" s="9" t="s">
-        <v>169</v>
+        <v>321</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C63" s="3">
+        <v>513520</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G63" s="1">
+        <v>331</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C64" s="3">
         <v>1112</v>
-      </c>
-      <c r="D63" t="s">
-        <v>157</v>
-      </c>
-      <c r="E63" t="s">
-        <v>147</v>
-      </c>
-      <c r="F63" t="s">
-        <v>148</v>
-      </c>
-      <c r="G63">
-        <v>411</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>141</v>
-      </c>
-      <c r="B64" t="s">
-        <v>141</v>
-      </c>
-      <c r="C64" s="3">
-        <v>519700</v>
       </c>
       <c r="D64" t="s">
         <v>157</v>
@@ -3023,66 +3058,66 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>158</v>
-      </c>
-      <c r="B65" t="s">
-        <v>236</v>
+      <c r="A65" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="C65" s="3">
-        <v>519738</v>
+        <v>6585</v>
       </c>
       <c r="D65" t="s">
-        <v>157</v>
+        <v>252</v>
       </c>
       <c r="E65" t="s">
         <v>147</v>
       </c>
       <c r="F65" t="s">
-        <v>149</v>
+        <v>253</v>
       </c>
       <c r="G65">
         <v>411</v>
       </c>
-      <c r="H65" s="6" t="s">
-        <v>152</v>
+      <c r="H65" s="10" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>144</v>
-      </c>
-      <c r="B66" t="s">
-        <v>237</v>
+      <c r="A66" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="C66" s="3">
-        <v>519752</v>
+        <v>8127</v>
       </c>
       <c r="D66" t="s">
-        <v>157</v>
+        <v>252</v>
       </c>
       <c r="E66" t="s">
         <v>147</v>
       </c>
       <c r="F66" t="s">
-        <v>149</v>
+        <v>253</v>
       </c>
       <c r="G66">
-        <v>412</v>
-      </c>
-      <c r="H66" s="6" t="s">
-        <v>152</v>
+        <v>411</v>
+      </c>
+      <c r="H66" s="10" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B67" t="s">
-        <v>238</v>
+        <v>141</v>
       </c>
       <c r="C67" s="3">
-        <v>519755</v>
+        <v>519700</v>
       </c>
       <c r="D67" t="s">
         <v>157</v>
@@ -3091,10 +3126,10 @@
         <v>147</v>
       </c>
       <c r="F67" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G67">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H67" s="6" t="s">
         <v>152</v>
@@ -3102,13 +3137,13 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B68" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C68" s="3">
-        <v>485011</v>
+        <v>519738</v>
       </c>
       <c r="D68" t="s">
         <v>157</v>
@@ -3120,7 +3155,7 @@
         <v>149</v>
       </c>
       <c r="G68">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H68" s="6" t="s">
         <v>152</v>
@@ -3128,13 +3163,13 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="B69" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="C69" s="3">
-        <v>1338</v>
+        <v>519752</v>
       </c>
       <c r="D69" t="s">
         <v>157</v>
@@ -3154,13 +3189,13 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="B70" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="C70" s="3">
-        <v>7749</v>
+        <v>519755</v>
       </c>
       <c r="D70" t="s">
         <v>157</v>
@@ -3180,13 +3215,13 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B71" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="C71" s="3">
-        <v>6060</v>
+        <v>485011</v>
       </c>
       <c r="D71" t="s">
         <v>157</v>
@@ -3206,13 +3241,13 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B72" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C72" s="3">
-        <v>2147</v>
+        <v>1338</v>
       </c>
       <c r="D72" t="s">
         <v>157</v>
@@ -3231,78 +3266,78 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>240</v>
+      <c r="A73" t="s">
+        <v>165</v>
+      </c>
+      <c r="B73" t="s">
+        <v>210</v>
       </c>
       <c r="C73" s="3">
-        <v>3376</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G73" s="1">
-        <v>511</v>
+        <v>7749</v>
+      </c>
+      <c r="D73" t="s">
+        <v>157</v>
+      </c>
+      <c r="E73" t="s">
+        <v>147</v>
+      </c>
+      <c r="F73" t="s">
+        <v>149</v>
+      </c>
+      <c r="G73">
+        <v>412</v>
       </c>
       <c r="H73" s="6" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>213</v>
+      <c r="A74" t="s">
+        <v>166</v>
+      </c>
+      <c r="B74" t="s">
+        <v>211</v>
       </c>
       <c r="C74" s="3">
-        <v>519153</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G74" s="1">
-        <v>511</v>
+        <v>6060</v>
+      </c>
+      <c r="D74" t="s">
+        <v>157</v>
+      </c>
+      <c r="E74" t="s">
+        <v>147</v>
+      </c>
+      <c r="F74" t="s">
+        <v>149</v>
+      </c>
+      <c r="G74">
+        <v>412</v>
       </c>
       <c r="H74" s="6" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>214</v>
+      <c r="A75" t="s">
+        <v>167</v>
+      </c>
+      <c r="B75" t="s">
+        <v>212</v>
       </c>
       <c r="C75" s="3">
-        <v>2086</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G75" s="1">
-        <v>511</v>
+        <v>2147</v>
+      </c>
+      <c r="D75" t="s">
+        <v>157</v>
+      </c>
+      <c r="E75" t="s">
+        <v>147</v>
+      </c>
+      <c r="F75" t="s">
+        <v>149</v>
+      </c>
+      <c r="G75">
+        <v>412</v>
       </c>
       <c r="H75" s="6" t="s">
         <v>152</v>
@@ -3310,13 +3345,13 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>162</v>
+        <v>44</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="C76" s="3">
-        <v>6320</v>
+        <v>3376</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>31</v>
@@ -3336,13 +3371,13 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>43</v>
+        <v>161</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>43</v>
+        <v>213</v>
       </c>
       <c r="C77" s="3">
-        <v>204001</v>
+        <v>519153</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>31</v>
@@ -3356,17 +3391,19 @@
       <c r="G77" s="1">
         <v>511</v>
       </c>
-      <c r="H77" s="6"/>
+      <c r="H77" s="6" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>42</v>
+        <v>214</v>
       </c>
       <c r="C78" s="3">
-        <v>204007</v>
+        <v>2086</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>31</v>
@@ -3380,17 +3417,19 @@
       <c r="G78" s="1">
         <v>511</v>
       </c>
-      <c r="H78" s="6"/>
+      <c r="H78" s="6" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>41</v>
+        <v>215</v>
       </c>
       <c r="C79" s="3">
-        <v>131810</v>
+        <v>6320</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>31</v>
@@ -3404,17 +3443,19 @@
       <c r="G79" s="1">
         <v>511</v>
       </c>
-      <c r="H79" s="6"/>
+      <c r="H79" s="6" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C80" s="3">
-        <v>131800</v>
+        <v>204001</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>31</v>
@@ -3432,13 +3473,13 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C81" s="3">
-        <v>511010</v>
+        <v>204007</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>31</v>
@@ -3452,97 +3493,91 @@
       <c r="G81" s="1">
         <v>511</v>
       </c>
-      <c r="H81" s="6" t="s">
+      <c r="H81" s="6"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C82" s="3">
+        <v>131810</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G82" s="1">
+        <v>511</v>
+      </c>
+      <c r="H82" s="6"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C83" s="3">
+        <v>131800</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G83" s="1">
+        <v>511</v>
+      </c>
+      <c r="H83" s="6"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C84" s="3">
+        <v>511010</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G84" s="1">
+        <v>511</v>
+      </c>
+      <c r="H84" s="6" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>140</v>
-      </c>
-      <c r="B82" t="s">
-        <v>241</v>
-      </c>
-      <c r="C82" s="3">
-        <v>6793</v>
-      </c>
-      <c r="D82" t="s">
-        <v>31</v>
-      </c>
-      <c r="E82" t="s">
-        <v>34</v>
-      </c>
-      <c r="F82" t="s">
-        <v>33</v>
-      </c>
-      <c r="G82" s="1">
-        <v>512</v>
-      </c>
-      <c r="H82" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>142</v>
-      </c>
-      <c r="B83" t="s">
-        <v>142</v>
-      </c>
-      <c r="C83" s="3">
-        <v>519718</v>
-      </c>
-      <c r="D83" t="s">
-        <v>31</v>
-      </c>
-      <c r="E83" t="s">
-        <v>34</v>
-      </c>
-      <c r="F83" t="s">
-        <v>33</v>
-      </c>
-      <c r="G83" s="1">
-        <v>512</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>143</v>
-      </c>
-      <c r="B84" t="s">
-        <v>143</v>
-      </c>
-      <c r="C84" s="3">
-        <v>519723</v>
-      </c>
-      <c r="D84" t="s">
-        <v>31</v>
-      </c>
-      <c r="E84" t="s">
-        <v>34</v>
-      </c>
-      <c r="F84" t="s">
-        <v>33</v>
-      </c>
-      <c r="G84" s="1">
-        <v>512</v>
-      </c>
-      <c r="H84" s="6" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B85" t="s">
-        <v>242</v>
-      </c>
-      <c r="C85">
-        <v>519776</v>
+        <v>241</v>
+      </c>
+      <c r="C85" s="3">
+        <v>6793</v>
       </c>
       <c r="D85" t="s">
         <v>31</v>
@@ -3561,22 +3596,22 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>216</v>
+      <c r="A86" t="s">
+        <v>142</v>
+      </c>
+      <c r="B86" t="s">
+        <v>142</v>
       </c>
       <c r="C86" s="3">
-        <v>340001</v>
-      </c>
-      <c r="D86" s="1" t="s">
+        <v>519718</v>
+      </c>
+      <c r="D86" t="s">
         <v>31</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E86" t="s">
         <v>34</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="F86" t="s">
         <v>33</v>
       </c>
       <c r="G86" s="1">
@@ -3587,22 +3622,22 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>243</v>
+      <c r="A87" t="s">
+        <v>143</v>
+      </c>
+      <c r="B87" t="s">
+        <v>143</v>
       </c>
       <c r="C87" s="3">
-        <v>110027</v>
-      </c>
-      <c r="D87" s="1" t="s">
+        <v>519723</v>
+      </c>
+      <c r="D87" t="s">
         <v>31</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="E87" t="s">
         <v>34</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="F87" t="s">
         <v>33</v>
       </c>
       <c r="G87" s="1">
@@ -3613,14 +3648,14 @@
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C88" s="3">
-        <v>164902</v>
+      <c r="A88" t="s">
+        <v>146</v>
+      </c>
+      <c r="B88" t="s">
+        <v>242</v>
+      </c>
+      <c r="C88">
+        <v>519776</v>
       </c>
       <c r="D88" t="s">
         <v>31</v>
@@ -3640,13 +3675,13 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="C89" s="3">
-        <v>519977</v>
+        <v>340001</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>31</v>
@@ -3666,25 +3701,25 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C90" s="3">
-        <v>1061</v>
+        <v>110027</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G90" s="1">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="H90" s="6" t="s">
         <v>152</v>
@@ -3692,51 +3727,51 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>28</v>
+        <v>159</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>28</v>
+        <v>217</v>
       </c>
       <c r="C91" s="3">
-        <v>518880</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>26</v>
+        <v>164902</v>
+      </c>
+      <c r="D91" t="s">
+        <v>31</v>
+      </c>
+      <c r="E91" t="s">
+        <v>34</v>
+      </c>
+      <c r="F91" t="s">
+        <v>33</v>
       </c>
       <c r="G91" s="1">
-        <v>611</v>
+        <v>512</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C92" s="3">
-        <v>216</v>
+        <v>519977</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G92" s="1">
-        <v>611</v>
+        <v>512</v>
       </c>
       <c r="H92" s="6" t="s">
         <v>152</v>
@@ -3744,37 +3779,39 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>25</v>
+        <v>245</v>
       </c>
       <c r="C93" s="3">
-        <v>999979</v>
+        <v>1061</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G93" s="1">
-        <v>612</v>
-      </c>
-      <c r="H93" s="7"/>
+        <v>521</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>154</v>
+        <v>28</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>154</v>
+        <v>28</v>
       </c>
       <c r="C94" s="3">
-        <v>162411</v>
+        <v>518880</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>22</v>
@@ -3783,10 +3820,10 @@
         <v>22</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G94" s="1">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H94" s="6" t="s">
         <v>151</v>
@@ -3794,13 +3831,13 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>23</v>
+        <v>246</v>
       </c>
       <c r="C95" s="3">
-        <v>501018</v>
+        <v>216</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>22</v>
@@ -3809,24 +3846,24 @@
         <v>22</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G95" s="1">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>172</v>
+        <v>25</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>218</v>
+        <v>25</v>
       </c>
       <c r="C96" s="3">
-        <v>160416</v>
+        <v>999979</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>22</v>
@@ -3835,191 +3872,196 @@
         <v>22</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G96" s="1">
-        <v>613</v>
-      </c>
-      <c r="H96" s="6" t="s">
-        <v>151</v>
-      </c>
+        <v>612</v>
+      </c>
+      <c r="H96" s="7"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="C97" s="3">
-        <v>999988</v>
+        <v>162411</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>137</v>
+        <v>22</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G97" s="1">
-        <v>988</v>
-      </c>
-      <c r="H97" s="7"/>
+        <v>613</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C98" s="3">
-        <v>999989</v>
+        <v>501018</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="G98" s="1">
-        <v>989</v>
-      </c>
-      <c r="H98" s="7"/>
+        <v>613</v>
+      </c>
+      <c r="H98" s="6" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>2</v>
+        <v>172</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>2</v>
+        <v>218</v>
       </c>
       <c r="C99" s="3">
-        <v>999997</v>
+        <v>160416</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="G99" s="1">
-        <v>997</v>
-      </c>
-      <c r="H99" s="7"/>
+        <v>613</v>
+      </c>
+      <c r="H99" s="6" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C100" s="3">
-        <v>999998</v>
+        <v>999988</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>5</v>
+        <v>135</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="G100" s="1">
-        <v>998</v>
+        <v>988</v>
       </c>
       <c r="H100" s="7"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C101" s="3">
-        <v>999999</v>
+        <v>999989</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>5</v>
+        <v>135</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="G101" s="1">
-        <v>999</v>
-      </c>
+        <v>989</v>
+      </c>
+      <c r="H101" s="7"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C102" s="3">
-        <v>511990</v>
+        <v>999997</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>4</v>
+        <v>133</v>
       </c>
       <c r="G102" s="1">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="H102" s="7"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C103" s="3">
-        <v>940018</v>
+        <v>999998</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>4</v>
+        <v>134</v>
       </c>
       <c r="G103" s="1">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H103" s="7"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C104" s="3">
-        <v>511980</v>
+        <v>999999</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>5</v>
@@ -4033,17 +4075,16 @@
       <c r="G104" s="1">
         <v>999</v>
       </c>
-      <c r="H104" s="7"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C105" s="3">
-        <v>511880</v>
+        <v>511990</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>5</v>
@@ -4060,11 +4101,83 @@
       <c r="H105" s="7"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" s="3">
+        <v>940018</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G106" s="1">
+        <v>999</v>
+      </c>
       <c r="H106" s="7"/>
     </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" s="3">
+        <v>511980</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G107" s="1">
+        <v>999</v>
+      </c>
+      <c r="H107" s="7"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108" s="3">
+        <v>511880</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G108" s="1">
+        <v>999</v>
+      </c>
+      <c r="H108" s="7"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H109" s="7"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H105">
-    <sortCondition ref="G35"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H108">
+    <sortCondition ref="G36"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/category/资产配置分类表.xlsx
+++ b/category/资产配置分类表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\deal-record\category\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE67DEC-F4D3-4EAD-A2A1-C8BC5450A557}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAE8447-7E48-42B0-8162-47E1386E92F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A2CED1EC-343A-4CFC-976C-17F1726B3D68}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="258">
   <si>
     <t>无息外借款</t>
   </si>
@@ -945,6 +945,14 @@
   </si>
   <si>
     <t>南方宝元债C</t>
+  </si>
+  <si>
+    <t>兴全沪深300指数(LOF)A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴全300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1392,10 +1400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7002D332-7AD6-42B5-A99D-39647A47F5B6}">
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:H110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65:H65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1617,13 +1625,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>116</v>
+        <v>256</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>183</v>
+        <v>257</v>
       </c>
       <c r="C9" s="3">
-        <v>519671</v>
+        <v>163407</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -1632,10 +1640,10 @@
         <v>109</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G9" s="1">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>152</v>
@@ -1643,13 +1651,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C10" s="3">
-        <v>310398</v>
+        <v>519671</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>13</v>
@@ -1669,13 +1677,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C11" s="3">
-        <v>530015</v>
+        <v>310398</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -1684,10 +1692,10 @@
         <v>109</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G11" s="1">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>152</v>
@@ -1695,13 +1703,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C12" s="3">
-        <v>70023</v>
+        <v>530015</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -1710,10 +1718,10 @@
         <v>109</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G12" s="1">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>152</v>
@@ -1721,13 +1729,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="C13" s="3">
-        <v>159902</v>
+        <v>70023</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -1736,36 +1744,36 @@
         <v>109</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G13" s="1">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C14" s="3">
-        <v>510500</v>
+        <v>159902</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G14" s="1">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>151</v>
@@ -1773,13 +1781,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>194</v>
+        <v>107</v>
       </c>
       <c r="C15" s="3">
-        <v>478</v>
+        <v>510500</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>13</v>
@@ -1794,18 +1802,18 @@
         <v>121</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C16" s="3">
-        <v>1052</v>
+        <v>478</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -1825,13 +1833,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C17" s="3">
-        <v>161017</v>
+        <v>1052</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
@@ -1851,13 +1859,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C18" s="3">
-        <v>2903</v>
+        <v>161017</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>13</v>
@@ -1877,13 +1885,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C19" s="3">
-        <v>162711</v>
+        <v>2903</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
@@ -1903,13 +1911,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="C20" s="3">
-        <v>3318</v>
+        <v>162711</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
@@ -1918,10 +1926,10 @@
         <v>92</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G20" s="1">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>152</v>
@@ -1929,13 +1937,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>98</v>
+        <v>219</v>
       </c>
       <c r="C21" s="3">
-        <v>512100</v>
+        <v>3318</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
@@ -1944,24 +1952,24 @@
         <v>92</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G21" s="1">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>199</v>
+        <v>98</v>
       </c>
       <c r="C22" s="3">
-        <v>3647</v>
+        <v>512100</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>13</v>
@@ -1976,18 +1984,18 @@
         <v>123</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C23" s="3">
-        <v>162413</v>
+        <v>3647</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>13</v>
@@ -2007,13 +2015,13 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>91</v>
+        <v>200</v>
       </c>
       <c r="C24" s="3">
-        <v>159915</v>
+        <v>162413</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>13</v>
@@ -2022,24 +2030,24 @@
         <v>92</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G24" s="1">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>220</v>
+        <v>91</v>
       </c>
       <c r="C25" s="3">
-        <v>110026</v>
+        <v>159915</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>13</v>
@@ -2054,18 +2062,18 @@
         <v>124</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C26" s="3">
-        <v>3765</v>
+        <v>110026</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>13</v>
@@ -2085,25 +2093,25 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C27" s="3">
-        <v>90010</v>
+        <v>3765</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G27" s="1">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>152</v>
@@ -2111,13 +2119,13 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C28" s="3">
-        <v>100032</v>
+        <v>90010</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>13</v>
@@ -2137,13 +2145,13 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>168</v>
+        <v>89</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C29" s="3">
-        <v>515180</v>
+        <v>100032</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>13</v>
@@ -2157,19 +2165,19 @@
       <c r="G29" s="1">
         <v>131</v>
       </c>
-      <c r="H29" s="9" t="s">
-        <v>169</v>
+      <c r="H29" s="6" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C30" s="3">
-        <v>501029</v>
+        <v>515180</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>13</v>
@@ -2178,36 +2186,36 @@
         <v>86</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G30" s="1">
-        <v>132</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>152</v>
+        <v>131</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="C31" s="3">
-        <v>968</v>
+        <v>501029</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G31" s="1">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>152</v>
@@ -2215,13 +2223,13 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C32" s="3">
-        <v>1550</v>
+        <v>968</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>13</v>
@@ -2230,10 +2238,10 @@
         <v>64</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G32" s="1">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>152</v>
@@ -2241,13 +2249,13 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="C33" s="3">
-        <v>159938</v>
+        <v>1550</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>13</v>
@@ -2262,18 +2270,18 @@
         <v>142</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C34" s="3">
-        <v>1180</v>
+        <v>159938</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>13</v>
@@ -2288,18 +2296,18 @@
         <v>142</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>78</v>
+        <v>227</v>
       </c>
       <c r="C35" s="3">
-        <v>512580</v>
+        <v>1180</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>13</v>
@@ -2308,24 +2316,24 @@
         <v>64</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G35" s="1">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>189</v>
+        <v>78</v>
       </c>
       <c r="C36" s="3">
-        <v>1064</v>
+        <v>512580</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>13</v>
@@ -2340,18 +2348,18 @@
         <v>143</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>75</v>
+        <v>189</v>
       </c>
       <c r="C37" s="3">
-        <v>512980</v>
+        <v>1064</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>13</v>
@@ -2360,24 +2368,24 @@
         <v>64</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G37" s="1">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>228</v>
+        <v>75</v>
       </c>
       <c r="C38" s="3">
-        <v>4752</v>
+        <v>512980</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>13</v>
@@ -2392,18 +2400,18 @@
         <v>144</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>72</v>
+        <v>228</v>
       </c>
       <c r="C39" s="3">
-        <v>512880</v>
+        <v>4752</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>13</v>
@@ -2412,24 +2420,24 @@
         <v>64</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G39" s="1">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>201</v>
+        <v>72</v>
       </c>
       <c r="C40" s="3">
-        <v>502010</v>
+        <v>512880</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>13</v>
@@ -2444,18 +2452,18 @@
         <v>145</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="C41" s="3">
-        <v>1594</v>
+        <v>502010</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>13</v>
@@ -2464,10 +2472,10 @@
         <v>64</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>156</v>
+        <v>70</v>
       </c>
       <c r="G41" s="1">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>152</v>
@@ -2475,13 +2483,13 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>69</v>
+        <v>155</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C42" s="3">
-        <v>1469</v>
+        <v>1594</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>13</v>
@@ -2490,10 +2498,10 @@
         <v>64</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>68</v>
+        <v>156</v>
       </c>
       <c r="G42" s="1">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>152</v>
@@ -2501,13 +2509,13 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="C43" s="3">
-        <v>110022</v>
+        <v>1469</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>13</v>
@@ -2516,10 +2524,10 @@
         <v>64</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G43" s="1">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>152</v>
@@ -2527,13 +2535,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C44" s="3">
-        <v>161725</v>
+        <v>110022</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>13</v>
@@ -2553,37 +2561,39 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>20</v>
+        <v>203</v>
       </c>
       <c r="C45" s="3">
-        <v>600861</v>
+        <v>161725</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="G45" s="1">
-        <v>151</v>
-      </c>
-      <c r="H45" s="7"/>
+        <v>148</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C46" s="3">
-        <v>836</v>
+        <v>600861</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>13</v>
@@ -2601,13 +2611,13 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C47" s="3">
-        <v>600879</v>
+        <v>836</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -2625,13 +2635,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C48" s="3">
-        <v>17</v>
+        <v>600879</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>13</v>
@@ -2649,13 +2659,13 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C49" s="3">
-        <v>601939</v>
+        <v>17</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>13</v>
@@ -2673,13 +2683,13 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C50" s="3">
-        <v>428</v>
+        <v>601939</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>13</v>
@@ -2697,13 +2707,13 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C51" s="3">
-        <v>600857</v>
+        <v>428</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>13</v>
@@ -2721,39 +2731,37 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>231</v>
+        <v>14</v>
       </c>
       <c r="C52" s="3">
-        <v>71</v>
+        <v>600857</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="G52" s="1">
-        <v>211</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>152</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="H52" s="7"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>62</v>
+        <v>231</v>
       </c>
       <c r="C53" s="3">
-        <v>159920</v>
+        <v>71</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>54</v>
@@ -2768,18 +2776,18 @@
         <v>211</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C54" s="3">
-        <v>510900</v>
+        <v>159920</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>54</v>
@@ -2788,10 +2796,10 @@
         <v>57</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G54" s="1">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>151</v>
@@ -2799,13 +2807,13 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>204</v>
+        <v>60</v>
       </c>
       <c r="C55" s="3">
-        <v>501021</v>
+        <v>510900</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>54</v>
@@ -2814,36 +2822,36 @@
         <v>57</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G55" s="1">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="C56" s="3">
-        <v>164906</v>
+        <v>501021</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G56" s="1">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>152</v>
@@ -2851,13 +2859,13 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C57" s="3">
-        <v>6327</v>
+        <v>164906</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>54</v>
@@ -2877,25 +2885,25 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="C58" s="3">
-        <v>40046</v>
+        <v>6327</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>178</v>
+        <v>52</v>
       </c>
       <c r="G58" s="1">
-        <v>312</v>
+        <v>221</v>
       </c>
       <c r="H58" s="6" t="s">
         <v>152</v>
@@ -2903,13 +2911,13 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="C59" s="3">
-        <v>50025</v>
+        <v>40046</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>47</v>
@@ -2918,10 +2926,10 @@
         <v>50</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G59" s="1">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>152</v>
@@ -2929,13 +2937,13 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>51</v>
+        <v>176</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C60" s="3">
-        <v>179</v>
+        <v>50025</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>47</v>
@@ -2944,10 +2952,10 @@
         <v>50</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>49</v>
+        <v>177</v>
       </c>
       <c r="G60" s="1">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>152</v>
@@ -2955,13 +2963,13 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>171</v>
+        <v>51</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="C61" s="3">
-        <v>161128</v>
+        <v>179</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>47</v>
@@ -2970,10 +2978,10 @@
         <v>50</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>170</v>
+        <v>49</v>
       </c>
       <c r="G61" s="1">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>152</v>
@@ -2981,25 +2989,25 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>48</v>
+        <v>171</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C62" s="3">
-        <v>614</v>
+        <v>161128</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="G62" s="1">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>152</v>
@@ -3007,91 +3015,91 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>173</v>
+        <v>48</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="C63" s="3">
-        <v>513520</v>
+        <v>614</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>174</v>
+        <v>46</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="G63" s="1">
-        <v>331</v>
-      </c>
-      <c r="H63" s="9" t="s">
-        <v>169</v>
+        <v>321</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="C64" s="3">
-        <v>1112</v>
-      </c>
-      <c r="D64" t="s">
-        <v>157</v>
-      </c>
-      <c r="E64" t="s">
-        <v>147</v>
-      </c>
-      <c r="F64" t="s">
-        <v>148</v>
-      </c>
-      <c r="G64">
-        <v>411</v>
-      </c>
-      <c r="H64" s="6" t="s">
-        <v>152</v>
+        <v>513520</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G64" s="1">
+        <v>331</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>254</v>
+        <v>180</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>255</v>
+        <v>208</v>
       </c>
       <c r="C65" s="3">
-        <v>6585</v>
+        <v>1112</v>
       </c>
       <c r="D65" t="s">
-        <v>252</v>
+        <v>157</v>
       </c>
       <c r="E65" t="s">
         <v>147</v>
       </c>
       <c r="F65" t="s">
-        <v>253</v>
+        <v>148</v>
       </c>
       <c r="G65">
         <v>411</v>
       </c>
-      <c r="H65" s="10" t="s">
-        <v>249</v>
+      <c r="H65" s="6" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C66" s="3">
-        <v>8127</v>
+        <v>6585</v>
       </c>
       <c r="D66" t="s">
         <v>252</v>
@@ -3110,40 +3118,40 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>141</v>
-      </c>
-      <c r="B67" t="s">
-        <v>141</v>
+      <c r="A67" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="C67" s="3">
-        <v>519700</v>
+        <v>8127</v>
       </c>
       <c r="D67" t="s">
-        <v>157</v>
+        <v>252</v>
       </c>
       <c r="E67" t="s">
         <v>147</v>
       </c>
       <c r="F67" t="s">
-        <v>148</v>
+        <v>253</v>
       </c>
       <c r="G67">
         <v>411</v>
       </c>
-      <c r="H67" s="6" t="s">
-        <v>152</v>
+      <c r="H67" s="10" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="B68" t="s">
-        <v>236</v>
+        <v>141</v>
       </c>
       <c r="C68" s="3">
-        <v>519738</v>
+        <v>519700</v>
       </c>
       <c r="D68" t="s">
         <v>157</v>
@@ -3152,7 +3160,7 @@
         <v>147</v>
       </c>
       <c r="F68" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G68">
         <v>411</v>
@@ -3163,13 +3171,13 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="B69" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C69" s="3">
-        <v>519752</v>
+        <v>519738</v>
       </c>
       <c r="D69" t="s">
         <v>157</v>
@@ -3181,7 +3189,7 @@
         <v>149</v>
       </c>
       <c r="G69">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>152</v>
@@ -3189,13 +3197,13 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B70" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C70" s="3">
-        <v>519755</v>
+        <v>519752</v>
       </c>
       <c r="D70" t="s">
         <v>157</v>
@@ -3215,13 +3223,13 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="B71" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C71" s="3">
-        <v>485011</v>
+        <v>519755</v>
       </c>
       <c r="D71" t="s">
         <v>157</v>
@@ -3241,13 +3249,13 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B72" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="C72" s="3">
-        <v>1338</v>
+        <v>485011</v>
       </c>
       <c r="D72" t="s">
         <v>157</v>
@@ -3267,13 +3275,13 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B73" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C73" s="3">
-        <v>7749</v>
+        <v>1338</v>
       </c>
       <c r="D73" t="s">
         <v>157</v>
@@ -3293,13 +3301,13 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B74" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C74" s="3">
-        <v>6060</v>
+        <v>7749</v>
       </c>
       <c r="D74" t="s">
         <v>157</v>
@@ -3319,13 +3327,13 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B75" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C75" s="3">
-        <v>2147</v>
+        <v>6060</v>
       </c>
       <c r="D75" t="s">
         <v>157</v>
@@ -3344,26 +3352,26 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>240</v>
+      <c r="A76" t="s">
+        <v>167</v>
+      </c>
+      <c r="B76" t="s">
+        <v>212</v>
       </c>
       <c r="C76" s="3">
-        <v>3376</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G76" s="1">
-        <v>511</v>
+        <v>2147</v>
+      </c>
+      <c r="D76" t="s">
+        <v>157</v>
+      </c>
+      <c r="E76" t="s">
+        <v>147</v>
+      </c>
+      <c r="F76" t="s">
+        <v>149</v>
+      </c>
+      <c r="G76">
+        <v>412</v>
       </c>
       <c r="H76" s="6" t="s">
         <v>152</v>
@@ -3371,13 +3379,13 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>161</v>
+        <v>44</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="C77" s="3">
-        <v>519153</v>
+        <v>3376</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>31</v>
@@ -3397,13 +3405,13 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C78" s="3">
-        <v>2086</v>
+        <v>519153</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>31</v>
@@ -3423,13 +3431,13 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C79" s="3">
-        <v>6320</v>
+        <v>2086</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>31</v>
@@ -3449,13 +3457,13 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>43</v>
+        <v>215</v>
       </c>
       <c r="C80" s="3">
-        <v>204001</v>
+        <v>6320</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>31</v>
@@ -3469,17 +3477,19 @@
       <c r="G80" s="1">
         <v>511</v>
       </c>
-      <c r="H80" s="6"/>
+      <c r="H80" s="6" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C81" s="3">
-        <v>204007</v>
+        <v>204001</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>31</v>
@@ -3497,13 +3507,13 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C82" s="3">
-        <v>131810</v>
+        <v>204007</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>31</v>
@@ -3521,13 +3531,13 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C83" s="3">
-        <v>131800</v>
+        <v>131810</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>31</v>
@@ -3545,13 +3555,13 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C84" s="3">
-        <v>511010</v>
+        <v>131800</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>31</v>
@@ -3565,45 +3575,43 @@
       <c r="G84" s="1">
         <v>511</v>
       </c>
-      <c r="H84" s="6" t="s">
+      <c r="H84" s="6"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C85" s="3">
+        <v>511010</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G85" s="1">
+        <v>511</v>
+      </c>
+      <c r="H85" s="6" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>140</v>
-      </c>
-      <c r="B85" t="s">
-        <v>241</v>
-      </c>
-      <c r="C85" s="3">
-        <v>6793</v>
-      </c>
-      <c r="D85" t="s">
-        <v>31</v>
-      </c>
-      <c r="E85" t="s">
-        <v>34</v>
-      </c>
-      <c r="F85" t="s">
-        <v>33</v>
-      </c>
-      <c r="G85" s="1">
-        <v>512</v>
-      </c>
-      <c r="H85" s="6" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B86" t="s">
-        <v>142</v>
+        <v>241</v>
       </c>
       <c r="C86" s="3">
-        <v>519718</v>
+        <v>6793</v>
       </c>
       <c r="D86" t="s">
         <v>31</v>
@@ -3623,13 +3631,13 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B87" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C87" s="3">
-        <v>519723</v>
+        <v>519718</v>
       </c>
       <c r="D87" t="s">
         <v>31</v>
@@ -3649,13 +3657,13 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B88" t="s">
-        <v>242</v>
-      </c>
-      <c r="C88">
-        <v>519776</v>
+        <v>143</v>
+      </c>
+      <c r="C88" s="3">
+        <v>519723</v>
       </c>
       <c r="D88" t="s">
         <v>31</v>
@@ -3674,22 +3682,22 @@
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C89" s="3">
-        <v>340001</v>
-      </c>
-      <c r="D89" s="1" t="s">
+      <c r="A89" t="s">
+        <v>146</v>
+      </c>
+      <c r="B89" t="s">
+        <v>242</v>
+      </c>
+      <c r="C89">
+        <v>519776</v>
+      </c>
+      <c r="D89" t="s">
         <v>31</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E89" t="s">
         <v>34</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="F89" t="s">
         <v>33</v>
       </c>
       <c r="G89" s="1">
@@ -3701,13 +3709,13 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="C90" s="3">
-        <v>110027</v>
+        <v>340001</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>31</v>
@@ -3727,21 +3735,21 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>159</v>
+        <v>36</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="C91" s="3">
-        <v>164902</v>
-      </c>
-      <c r="D91" t="s">
+        <v>110027</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G91" s="1">
@@ -3753,21 +3761,21 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>35</v>
+        <v>159</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="C92" s="3">
-        <v>519977</v>
-      </c>
-      <c r="D92" s="1" t="s">
+        <v>164902</v>
+      </c>
+      <c r="D92" t="s">
         <v>31</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E92" t="s">
         <v>34</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="F92" t="s">
         <v>33</v>
       </c>
       <c r="G92" s="1">
@@ -3779,25 +3787,25 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C93" s="3">
-        <v>1061</v>
+        <v>519977</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G93" s="1">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="H93" s="6" t="s">
         <v>152</v>
@@ -3805,39 +3813,39 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>28</v>
+        <v>245</v>
       </c>
       <c r="C94" s="3">
-        <v>518880</v>
+        <v>1061</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G94" s="1">
-        <v>611</v>
+        <v>521</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>246</v>
+        <v>28</v>
       </c>
       <c r="C95" s="3">
-        <v>216</v>
+        <v>518880</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>22</v>
@@ -3852,18 +3860,18 @@
         <v>611</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>25</v>
+        <v>246</v>
       </c>
       <c r="C96" s="3">
-        <v>999979</v>
+        <v>216</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>22</v>
@@ -3872,22 +3880,24 @@
         <v>22</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G96" s="1">
-        <v>612</v>
-      </c>
-      <c r="H96" s="7"/>
+        <v>611</v>
+      </c>
+      <c r="H96" s="6" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="C97" s="3">
-        <v>162411</v>
+        <v>999979</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>22</v>
@@ -3896,24 +3906,22 @@
         <v>22</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G97" s="1">
-        <v>613</v>
-      </c>
-      <c r="H97" s="6" t="s">
-        <v>151</v>
-      </c>
+        <v>612</v>
+      </c>
+      <c r="H97" s="7"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="C98" s="3">
-        <v>501018</v>
+        <v>162411</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>22</v>
@@ -3933,13 +3941,13 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>172</v>
+        <v>23</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>218</v>
+        <v>23</v>
       </c>
       <c r="C99" s="3">
-        <v>160416</v>
+        <v>501018</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>22</v>
@@ -3959,132 +3967,135 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="C100" s="3">
-        <v>999988</v>
+        <v>160416</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>137</v>
+        <v>22</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G100" s="1">
-        <v>988</v>
-      </c>
-      <c r="H100" s="7"/>
+        <v>613</v>
+      </c>
+      <c r="H100" s="6" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101" s="3">
-        <v>999989</v>
+        <v>999988</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="G101" s="1">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H101" s="7"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C102" s="3">
-        <v>999997</v>
+        <v>999989</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>5</v>
+        <v>135</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G102" s="1">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="H102" s="7"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C103" s="3">
-        <v>999998</v>
+        <v>999997</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G103" s="1">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H103" s="7"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C104" s="3">
-        <v>999999</v>
+        <v>999998</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>4</v>
+        <v>134</v>
       </c>
       <c r="G104" s="1">
-        <v>999</v>
-      </c>
+        <v>998</v>
+      </c>
+      <c r="H104" s="7"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C105" s="3">
-        <v>511990</v>
+        <v>999999</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>5</v>
@@ -4098,17 +4109,16 @@
       <c r="G105" s="1">
         <v>999</v>
       </c>
-      <c r="H105" s="7"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" s="3">
-        <v>940018</v>
+        <v>511990</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>5</v>
@@ -4126,13 +4136,13 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" s="3">
-        <v>511980</v>
+        <v>940018</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>5</v>
@@ -4150,13 +4160,13 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C108" s="3">
-        <v>511880</v>
+        <v>511980</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>5</v>
@@ -4173,11 +4183,35 @@
       <c r="H108" s="7"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109" s="3">
+        <v>511880</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G109" s="1">
+        <v>999</v>
+      </c>
       <c r="H109" s="7"/>
     </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H110" s="7"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H108">
-    <sortCondition ref="G36"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H109">
+    <sortCondition ref="G37"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/category/资产配置分类表.xlsx
+++ b/category/资产配置分类表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\deal-record\category\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAE8447-7E48-42B0-8162-47E1386E92F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B295B48F-0A9A-4FB8-9310-535020C0A032}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A2CED1EC-343A-4CFC-976C-17F1726B3D68}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="366">
   <si>
     <t>无息外借款</t>
   </si>
@@ -954,14 +954,335 @@
     <t>兴全300</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>510050</t>
+  </si>
+  <si>
+    <t>001051</t>
+  </si>
+  <si>
+    <t>110003</t>
+  </si>
+  <si>
+    <t>501050</t>
+  </si>
+  <si>
+    <t>510300</t>
+  </si>
+  <si>
+    <t>100038</t>
+  </si>
+  <si>
+    <t>000051</t>
+  </si>
+  <si>
+    <t>163407</t>
+  </si>
+  <si>
+    <t>519671</t>
+  </si>
+  <si>
+    <t>310398</t>
+  </si>
+  <si>
+    <t>530015</t>
+  </si>
+  <si>
+    <t>070023</t>
+  </si>
+  <si>
+    <t>159902</t>
+  </si>
+  <si>
+    <t>510500</t>
+  </si>
+  <si>
+    <t>000478</t>
+  </si>
+  <si>
+    <t>001052</t>
+  </si>
+  <si>
+    <t>161017</t>
+  </si>
+  <si>
+    <t>002903</t>
+  </si>
+  <si>
+    <t>162711</t>
+  </si>
+  <si>
+    <t>003318</t>
+  </si>
+  <si>
+    <t>512100</t>
+  </si>
+  <si>
+    <t>003647</t>
+  </si>
+  <si>
+    <t>162413</t>
+  </si>
+  <si>
+    <t>159915</t>
+  </si>
+  <si>
+    <t>110026</t>
+  </si>
+  <si>
+    <t>003765</t>
+  </si>
+  <si>
+    <t>090010</t>
+  </si>
+  <si>
+    <t>100032</t>
+  </si>
+  <si>
+    <t>515180</t>
+  </si>
+  <si>
+    <t>501029</t>
+  </si>
+  <si>
+    <t>000968</t>
+  </si>
+  <si>
+    <t>001550</t>
+  </si>
+  <si>
+    <t>159938</t>
+  </si>
+  <si>
+    <t>001180</t>
+  </si>
+  <si>
+    <t>512580</t>
+  </si>
+  <si>
+    <t>001064</t>
+  </si>
+  <si>
+    <t>512980</t>
+  </si>
+  <si>
+    <t>004752</t>
+  </si>
+  <si>
+    <t>512880</t>
+  </si>
+  <si>
+    <t>502010</t>
+  </si>
+  <si>
+    <t>001594</t>
+  </si>
+  <si>
+    <t>001469</t>
+  </si>
+  <si>
+    <t>110022</t>
+  </si>
+  <si>
+    <t>161725</t>
+  </si>
+  <si>
+    <t>600861</t>
+  </si>
+  <si>
+    <t>000836</t>
+  </si>
+  <si>
+    <t>600879</t>
+  </si>
+  <si>
+    <t>000017</t>
+  </si>
+  <si>
+    <t>601939</t>
+  </si>
+  <si>
+    <t>000428</t>
+  </si>
+  <si>
+    <t>600857</t>
+  </si>
+  <si>
+    <t>000071</t>
+  </si>
+  <si>
+    <t>159920</t>
+  </si>
+  <si>
+    <t>510900</t>
+  </si>
+  <si>
+    <t>501021</t>
+  </si>
+  <si>
+    <t>164906</t>
+  </si>
+  <si>
+    <t>006327</t>
+  </si>
+  <si>
+    <t>040046</t>
+  </si>
+  <si>
+    <t>050025</t>
+  </si>
+  <si>
+    <t>000179</t>
+  </si>
+  <si>
+    <t>161128</t>
+  </si>
+  <si>
+    <t>000614</t>
+  </si>
+  <si>
+    <t>513520</t>
+  </si>
+  <si>
+    <t>001112</t>
+  </si>
+  <si>
+    <t>006585</t>
+  </si>
+  <si>
+    <t>008127</t>
+  </si>
+  <si>
+    <t>519700</t>
+  </si>
+  <si>
+    <t>519738</t>
+  </si>
+  <si>
+    <t>519752</t>
+  </si>
+  <si>
+    <t>519755</t>
+  </si>
+  <si>
+    <t>485011</t>
+  </si>
+  <si>
+    <t>001338</t>
+  </si>
+  <si>
+    <t>007749</t>
+  </si>
+  <si>
+    <t>006060</t>
+  </si>
+  <si>
+    <t>002147</t>
+  </si>
+  <si>
+    <t>003376</t>
+  </si>
+  <si>
+    <t>519153</t>
+  </si>
+  <si>
+    <t>002086</t>
+  </si>
+  <si>
+    <t>006320</t>
+  </si>
+  <si>
+    <t>204001</t>
+  </si>
+  <si>
+    <t>204007</t>
+  </si>
+  <si>
+    <t>131810</t>
+  </si>
+  <si>
+    <t>131800</t>
+  </si>
+  <si>
+    <t>511010</t>
+  </si>
+  <si>
+    <t>006793</t>
+  </si>
+  <si>
+    <t>519718</t>
+  </si>
+  <si>
+    <t>519723</t>
+  </si>
+  <si>
+    <t>519776</t>
+  </si>
+  <si>
+    <t>340001</t>
+  </si>
+  <si>
+    <t>110027</t>
+  </si>
+  <si>
+    <t>164902</t>
+  </si>
+  <si>
+    <t>519977</t>
+  </si>
+  <si>
+    <t>001061</t>
+  </si>
+  <si>
+    <t>518880</t>
+  </si>
+  <si>
+    <t>000216</t>
+  </si>
+  <si>
+    <t>999979</t>
+  </si>
+  <si>
+    <t>162411</t>
+  </si>
+  <si>
+    <t>501018</t>
+  </si>
+  <si>
+    <t>160416</t>
+  </si>
+  <si>
+    <t>999988</t>
+  </si>
+  <si>
+    <t>999989</t>
+  </si>
+  <si>
+    <t>999997</t>
+  </si>
+  <si>
+    <t>999998</t>
+  </si>
+  <si>
+    <t>999999</t>
+  </si>
+  <si>
+    <t>511990</t>
+  </si>
+  <si>
+    <t>940018</t>
+  </si>
+  <si>
+    <t>511980</t>
+  </si>
+  <si>
+    <t>511880</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="000000"/>
-  </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1062,7 +1383,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1070,7 +1391,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1086,6 +1406,10 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1402,8 +1726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7002D332-7AD6-42B5-A99D-39647A47F5B6}">
   <dimension ref="A1:H110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:H9"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1416,13 +1740,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>129</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1434,10 +1758,10 @@
       <c r="F1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>153</v>
       </c>
     </row>
@@ -1448,8 +1772,8 @@
       <c r="B2" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="3">
-        <v>510050</v>
+      <c r="C2" s="10" t="s">
+        <v>258</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -1463,7 +1787,7 @@
       <c r="G2" s="1">
         <v>111</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1474,8 +1798,8 @@
       <c r="B3" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C3" s="3">
-        <v>1051</v>
+      <c r="C3" s="10" t="s">
+        <v>259</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
@@ -1489,7 +1813,7 @@
       <c r="G3" s="1">
         <v>111</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1500,8 +1824,8 @@
       <c r="B4" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C4" s="3">
-        <v>110003</v>
+      <c r="C4" s="10" t="s">
+        <v>260</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -1515,7 +1839,7 @@
       <c r="G4" s="1">
         <v>111</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>249</v>
       </c>
     </row>
@@ -1526,8 +1850,8 @@
       <c r="B5" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C5" s="3">
-        <v>501050</v>
+      <c r="C5" s="10" t="s">
+        <v>261</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -1541,7 +1865,7 @@
       <c r="G5" s="1">
         <v>112</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1552,8 +1876,8 @@
       <c r="B6" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C6" s="3">
-        <v>510300</v>
+      <c r="C6" s="10" t="s">
+        <v>262</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -1567,7 +1891,7 @@
       <c r="G6" s="1">
         <v>113</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="5" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1578,8 +1902,8 @@
       <c r="B7" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="3">
-        <v>100038</v>
+      <c r="C7" s="10" t="s">
+        <v>263</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
@@ -1593,7 +1917,7 @@
       <c r="G7" s="1">
         <v>113</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1604,8 +1928,8 @@
       <c r="B8" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C8" s="3">
-        <v>51</v>
+      <c r="C8" s="10" t="s">
+        <v>264</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -1619,7 +1943,7 @@
       <c r="G8" s="1">
         <v>113</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1630,8 +1954,8 @@
       <c r="B9" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C9" s="3">
-        <v>163407</v>
+      <c r="C9" s="10" t="s">
+        <v>265</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -1645,7 +1969,7 @@
       <c r="G9" s="1">
         <v>113</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1656,8 +1980,8 @@
       <c r="B10" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C10" s="3">
-        <v>519671</v>
+      <c r="C10" s="10" t="s">
+        <v>266</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>13</v>
@@ -1671,7 +1995,7 @@
       <c r="G10" s="1">
         <v>114</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1682,8 +2006,8 @@
       <c r="B11" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C11" s="3">
-        <v>310398</v>
+      <c r="C11" s="10" t="s">
+        <v>267</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -1697,7 +2021,7 @@
       <c r="G11" s="1">
         <v>114</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1708,8 +2032,8 @@
       <c r="B12" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C12" s="3">
-        <v>530015</v>
+      <c r="C12" s="10" t="s">
+        <v>268</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -1723,7 +2047,7 @@
       <c r="G12" s="1">
         <v>115</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1734,8 +2058,8 @@
       <c r="B13" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C13" s="3">
-        <v>70023</v>
+      <c r="C13" s="10" t="s">
+        <v>269</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -1749,7 +2073,7 @@
       <c r="G13" s="1">
         <v>116</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1760,8 +2084,8 @@
       <c r="B14" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="3">
-        <v>159902</v>
+      <c r="C14" s="10" t="s">
+        <v>270</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -1775,7 +2099,7 @@
       <c r="G14" s="1">
         <v>117</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="5" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1786,8 +2110,8 @@
       <c r="B15" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="3">
-        <v>510500</v>
+      <c r="C15" s="10" t="s">
+        <v>271</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>13</v>
@@ -1801,7 +2125,7 @@
       <c r="G15" s="1">
         <v>121</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="5" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1812,8 +2136,8 @@
       <c r="B16" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C16" s="3">
-        <v>478</v>
+      <c r="C16" s="10" t="s">
+        <v>272</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -1827,7 +2151,7 @@
       <c r="G16" s="1">
         <v>121</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1838,8 +2162,8 @@
       <c r="B17" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C17" s="3">
-        <v>1052</v>
+      <c r="C17" s="10" t="s">
+        <v>273</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
@@ -1853,7 +2177,7 @@
       <c r="G17" s="1">
         <v>121</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1864,8 +2188,8 @@
       <c r="B18" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C18" s="3">
-        <v>161017</v>
+      <c r="C18" s="10" t="s">
+        <v>274</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>13</v>
@@ -1879,7 +2203,7 @@
       <c r="G18" s="1">
         <v>121</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1890,8 +2214,8 @@
       <c r="B19" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C19" s="3">
-        <v>2903</v>
+      <c r="C19" s="10" t="s">
+        <v>275</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
@@ -1905,7 +2229,7 @@
       <c r="G19" s="1">
         <v>121</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1916,8 +2240,8 @@
       <c r="B20" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C20" s="3">
-        <v>162711</v>
+      <c r="C20" s="10" t="s">
+        <v>276</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
@@ -1931,7 +2255,7 @@
       <c r="G20" s="1">
         <v>121</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1942,8 +2266,8 @@
       <c r="B21" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C21" s="3">
-        <v>3318</v>
+      <c r="C21" s="10" t="s">
+        <v>277</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
@@ -1957,7 +2281,7 @@
       <c r="G21" s="1">
         <v>122</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1968,8 +2292,8 @@
       <c r="B22" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="3">
-        <v>512100</v>
+      <c r="C22" s="10" t="s">
+        <v>278</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>13</v>
@@ -1983,7 +2307,7 @@
       <c r="G22" s="1">
         <v>123</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="5" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1994,8 +2318,8 @@
       <c r="B23" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C23" s="3">
-        <v>3647</v>
+      <c r="C23" s="10" t="s">
+        <v>279</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>13</v>
@@ -2009,7 +2333,7 @@
       <c r="G23" s="1">
         <v>123</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2020,8 +2344,8 @@
       <c r="B24" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C24" s="3">
-        <v>162413</v>
+      <c r="C24" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>13</v>
@@ -2035,7 +2359,7 @@
       <c r="G24" s="1">
         <v>123</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2046,8 +2370,8 @@
       <c r="B25" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="3">
-        <v>159915</v>
+      <c r="C25" s="10" t="s">
+        <v>281</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>13</v>
@@ -2061,7 +2385,7 @@
       <c r="G25" s="1">
         <v>124</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="5" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2072,8 +2396,8 @@
       <c r="B26" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C26" s="3">
-        <v>110026</v>
+      <c r="C26" s="10" t="s">
+        <v>282</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>13</v>
@@ -2087,7 +2411,7 @@
       <c r="G26" s="1">
         <v>124</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2098,8 +2422,8 @@
       <c r="B27" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C27" s="3">
-        <v>3765</v>
+      <c r="C27" s="10" t="s">
+        <v>283</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>13</v>
@@ -2113,7 +2437,7 @@
       <c r="G27" s="1">
         <v>124</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2124,8 +2448,8 @@
       <c r="B28" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C28" s="3">
-        <v>90010</v>
+      <c r="C28" s="10" t="s">
+        <v>284</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>13</v>
@@ -2139,7 +2463,7 @@
       <c r="G28" s="1">
         <v>131</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2150,8 +2474,8 @@
       <c r="B29" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C29" s="3">
-        <v>100032</v>
+      <c r="C29" s="10" t="s">
+        <v>285</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>13</v>
@@ -2165,7 +2489,7 @@
       <c r="G29" s="1">
         <v>131</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H29" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2176,8 +2500,8 @@
       <c r="B30" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C30" s="3">
-        <v>515180</v>
+      <c r="C30" s="10" t="s">
+        <v>286</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>13</v>
@@ -2191,7 +2515,7 @@
       <c r="G30" s="1">
         <v>131</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="H30" s="8" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2202,8 +2526,8 @@
       <c r="B31" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C31" s="3">
-        <v>501029</v>
+      <c r="C31" s="10" t="s">
+        <v>287</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>13</v>
@@ -2217,7 +2541,7 @@
       <c r="G31" s="1">
         <v>132</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="H31" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2228,8 +2552,8 @@
       <c r="B32" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C32" s="3">
-        <v>968</v>
+      <c r="C32" s="10" t="s">
+        <v>288</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>13</v>
@@ -2243,7 +2567,7 @@
       <c r="G32" s="1">
         <v>141</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="H32" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2254,8 +2578,8 @@
       <c r="B33" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C33" s="3">
-        <v>1550</v>
+      <c r="C33" s="10" t="s">
+        <v>289</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>13</v>
@@ -2269,7 +2593,7 @@
       <c r="G33" s="1">
         <v>142</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="H33" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2280,8 +2604,8 @@
       <c r="B34" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C34" s="3">
-        <v>159938</v>
+      <c r="C34" s="10" t="s">
+        <v>290</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>13</v>
@@ -2295,7 +2619,7 @@
       <c r="G34" s="1">
         <v>142</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="H34" s="5" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2306,8 +2630,8 @@
       <c r="B35" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C35" s="3">
-        <v>1180</v>
+      <c r="C35" s="10" t="s">
+        <v>291</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>13</v>
@@ -2321,7 +2645,7 @@
       <c r="G35" s="1">
         <v>142</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="H35" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2332,8 +2656,8 @@
       <c r="B36" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="3">
-        <v>512580</v>
+      <c r="C36" s="10" t="s">
+        <v>292</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>13</v>
@@ -2347,7 +2671,7 @@
       <c r="G36" s="1">
         <v>143</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H36" s="5" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2358,8 +2682,8 @@
       <c r="B37" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C37" s="3">
-        <v>1064</v>
+      <c r="C37" s="10" t="s">
+        <v>293</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>13</v>
@@ -2373,7 +2697,7 @@
       <c r="G37" s="1">
         <v>143</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="H37" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2384,8 +2708,8 @@
       <c r="B38" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="3">
-        <v>512980</v>
+      <c r="C38" s="10" t="s">
+        <v>294</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>13</v>
@@ -2399,7 +2723,7 @@
       <c r="G38" s="1">
         <v>144</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="H38" s="5" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2410,8 +2734,8 @@
       <c r="B39" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C39" s="3">
-        <v>4752</v>
+      <c r="C39" s="10" t="s">
+        <v>295</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>13</v>
@@ -2425,7 +2749,7 @@
       <c r="G39" s="1">
         <v>144</v>
       </c>
-      <c r="H39" s="6" t="s">
+      <c r="H39" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2436,8 +2760,8 @@
       <c r="B40" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="3">
-        <v>512880</v>
+      <c r="C40" s="10" t="s">
+        <v>296</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>13</v>
@@ -2451,7 +2775,7 @@
       <c r="G40" s="1">
         <v>145</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="H40" s="5" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2462,8 +2786,8 @@
       <c r="B41" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C41" s="3">
-        <v>502010</v>
+      <c r="C41" s="10" t="s">
+        <v>297</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>13</v>
@@ -2477,7 +2801,7 @@
       <c r="G41" s="1">
         <v>145</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="H41" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2488,8 +2812,8 @@
       <c r="B42" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C42" s="3">
-        <v>1594</v>
+      <c r="C42" s="10" t="s">
+        <v>298</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>13</v>
@@ -2503,7 +2827,7 @@
       <c r="G42" s="1">
         <v>146</v>
       </c>
-      <c r="H42" s="6" t="s">
+      <c r="H42" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2514,8 +2838,8 @@
       <c r="B43" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C43" s="3">
-        <v>1469</v>
+      <c r="C43" s="10" t="s">
+        <v>299</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>13</v>
@@ -2529,7 +2853,7 @@
       <c r="G43" s="1">
         <v>147</v>
       </c>
-      <c r="H43" s="6" t="s">
+      <c r="H43" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2540,8 +2864,8 @@
       <c r="B44" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C44" s="3">
-        <v>110022</v>
+      <c r="C44" s="10" t="s">
+        <v>300</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>13</v>
@@ -2555,7 +2879,7 @@
       <c r="G44" s="1">
         <v>148</v>
       </c>
-      <c r="H44" s="6" t="s">
+      <c r="H44" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2566,8 +2890,8 @@
       <c r="B45" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C45" s="3">
-        <v>161725</v>
+      <c r="C45" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>13</v>
@@ -2581,7 +2905,7 @@
       <c r="G45" s="1">
         <v>148</v>
       </c>
-      <c r="H45" s="6" t="s">
+      <c r="H45" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2592,8 +2916,8 @@
       <c r="B46" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C46" s="3">
-        <v>600861</v>
+      <c r="C46" s="10" t="s">
+        <v>302</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>13</v>
@@ -2607,7 +2931,7 @@
       <c r="G46" s="1">
         <v>151</v>
       </c>
-      <c r="H46" s="7"/>
+      <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
@@ -2616,8 +2940,8 @@
       <c r="B47" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="3">
-        <v>836</v>
+      <c r="C47" s="10" t="s">
+        <v>303</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -2631,7 +2955,7 @@
       <c r="G47" s="1">
         <v>151</v>
       </c>
-      <c r="H47" s="7"/>
+      <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -2640,8 +2964,8 @@
       <c r="B48" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C48" s="3">
-        <v>600879</v>
+      <c r="C48" s="10" t="s">
+        <v>304</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>13</v>
@@ -2655,7 +2979,7 @@
       <c r="G48" s="1">
         <v>151</v>
       </c>
-      <c r="H48" s="7"/>
+      <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
@@ -2664,8 +2988,8 @@
       <c r="B49" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="3">
-        <v>17</v>
+      <c r="C49" s="10" t="s">
+        <v>305</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>13</v>
@@ -2679,7 +3003,7 @@
       <c r="G49" s="1">
         <v>151</v>
       </c>
-      <c r="H49" s="7"/>
+      <c r="H49" s="6"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
@@ -2688,8 +3012,8 @@
       <c r="B50" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="3">
-        <v>601939</v>
+      <c r="C50" s="10" t="s">
+        <v>306</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>13</v>
@@ -2703,7 +3027,7 @@
       <c r="G50" s="1">
         <v>151</v>
       </c>
-      <c r="H50" s="7"/>
+      <c r="H50" s="6"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
@@ -2712,8 +3036,8 @@
       <c r="B51" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="3">
-        <v>428</v>
+      <c r="C51" s="10" t="s">
+        <v>307</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>13</v>
@@ -2727,7 +3051,7 @@
       <c r="G51" s="1">
         <v>151</v>
       </c>
-      <c r="H51" s="7"/>
+      <c r="H51" s="6"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
@@ -2736,8 +3060,8 @@
       <c r="B52" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="3">
-        <v>600857</v>
+      <c r="C52" s="10" t="s">
+        <v>308</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>13</v>
@@ -2751,7 +3075,7 @@
       <c r="G52" s="1">
         <v>151</v>
       </c>
-      <c r="H52" s="7"/>
+      <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
@@ -2760,8 +3084,8 @@
       <c r="B53" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C53" s="3">
-        <v>71</v>
+      <c r="C53" s="10" t="s">
+        <v>309</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>54</v>
@@ -2775,7 +3099,7 @@
       <c r="G53" s="1">
         <v>211</v>
       </c>
-      <c r="H53" s="6" t="s">
+      <c r="H53" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2786,8 +3110,8 @@
       <c r="B54" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="3">
-        <v>159920</v>
+      <c r="C54" s="10" t="s">
+        <v>310</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>54</v>
@@ -2801,7 +3125,7 @@
       <c r="G54" s="1">
         <v>211</v>
       </c>
-      <c r="H54" s="6" t="s">
+      <c r="H54" s="5" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2812,8 +3136,8 @@
       <c r="B55" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C55" s="3">
-        <v>510900</v>
+      <c r="C55" s="10" t="s">
+        <v>311</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>54</v>
@@ -2827,7 +3151,7 @@
       <c r="G55" s="1">
         <v>212</v>
       </c>
-      <c r="H55" s="6" t="s">
+      <c r="H55" s="5" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2838,8 +3162,8 @@
       <c r="B56" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C56" s="3">
-        <v>501021</v>
+      <c r="C56" s="10" t="s">
+        <v>312</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>54</v>
@@ -2853,7 +3177,7 @@
       <c r="G56" s="1">
         <v>213</v>
       </c>
-      <c r="H56" s="6" t="s">
+      <c r="H56" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2864,8 +3188,8 @@
       <c r="B57" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C57" s="3">
-        <v>164906</v>
+      <c r="C57" s="10" t="s">
+        <v>313</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>54</v>
@@ -2879,7 +3203,7 @@
       <c r="G57" s="1">
         <v>221</v>
       </c>
-      <c r="H57" s="6" t="s">
+      <c r="H57" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2890,8 +3214,8 @@
       <c r="B58" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C58" s="3">
-        <v>6327</v>
+      <c r="C58" s="10" t="s">
+        <v>314</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>54</v>
@@ -2905,7 +3229,7 @@
       <c r="G58" s="1">
         <v>221</v>
       </c>
-      <c r="H58" s="6" t="s">
+      <c r="H58" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2916,8 +3240,8 @@
       <c r="B59" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C59" s="3">
-        <v>40046</v>
+      <c r="C59" s="10" t="s">
+        <v>315</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>47</v>
@@ -2931,7 +3255,7 @@
       <c r="G59" s="1">
         <v>312</v>
       </c>
-      <c r="H59" s="6" t="s">
+      <c r="H59" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2942,8 +3266,8 @@
       <c r="B60" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C60" s="3">
-        <v>50025</v>
+      <c r="C60" s="10" t="s">
+        <v>316</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>47</v>
@@ -2957,7 +3281,7 @@
       <c r="G60" s="1">
         <v>313</v>
       </c>
-      <c r="H60" s="6" t="s">
+      <c r="H60" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2968,8 +3292,8 @@
       <c r="B61" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C61" s="3">
-        <v>179</v>
+      <c r="C61" s="10" t="s">
+        <v>317</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>47</v>
@@ -2983,7 +3307,7 @@
       <c r="G61" s="1">
         <v>314</v>
       </c>
-      <c r="H61" s="6" t="s">
+      <c r="H61" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2994,8 +3318,8 @@
       <c r="B62" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C62" s="3">
-        <v>161128</v>
+      <c r="C62" s="10" t="s">
+        <v>318</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>47</v>
@@ -3009,7 +3333,7 @@
       <c r="G62" s="1">
         <v>315</v>
       </c>
-      <c r="H62" s="6" t="s">
+      <c r="H62" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3020,8 +3344,8 @@
       <c r="B63" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C63" s="3">
-        <v>614</v>
+      <c r="C63" s="10" t="s">
+        <v>319</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>47</v>
@@ -3035,7 +3359,7 @@
       <c r="G63" s="1">
         <v>321</v>
       </c>
-      <c r="H63" s="6" t="s">
+      <c r="H63" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3046,8 +3370,8 @@
       <c r="B64" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C64" s="3">
-        <v>513520</v>
+      <c r="C64" s="10" t="s">
+        <v>320</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>47</v>
@@ -3061,7 +3385,7 @@
       <c r="G64" s="1">
         <v>331</v>
       </c>
-      <c r="H64" s="9" t="s">
+      <c r="H64" s="8" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3072,8 +3396,8 @@
       <c r="B65" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C65" s="3">
-        <v>1112</v>
+      <c r="C65" s="10" t="s">
+        <v>321</v>
       </c>
       <c r="D65" t="s">
         <v>157</v>
@@ -3087,7 +3411,7 @@
       <c r="G65">
         <v>411</v>
       </c>
-      <c r="H65" s="6" t="s">
+      <c r="H65" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3098,8 +3422,8 @@
       <c r="B66" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C66" s="3">
-        <v>6585</v>
+      <c r="C66" s="10" t="s">
+        <v>322</v>
       </c>
       <c r="D66" t="s">
         <v>252</v>
@@ -3113,7 +3437,7 @@
       <c r="G66">
         <v>411</v>
       </c>
-      <c r="H66" s="10" t="s">
+      <c r="H66" s="9" t="s">
         <v>249</v>
       </c>
     </row>
@@ -3124,8 +3448,8 @@
       <c r="B67" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C67" s="3">
-        <v>8127</v>
+      <c r="C67" s="10" t="s">
+        <v>323</v>
       </c>
       <c r="D67" t="s">
         <v>252</v>
@@ -3139,7 +3463,7 @@
       <c r="G67">
         <v>411</v>
       </c>
-      <c r="H67" s="10" t="s">
+      <c r="H67" s="9" t="s">
         <v>249</v>
       </c>
     </row>
@@ -3150,8 +3474,8 @@
       <c r="B68" t="s">
         <v>141</v>
       </c>
-      <c r="C68" s="3">
-        <v>519700</v>
+      <c r="C68" s="10" t="s">
+        <v>324</v>
       </c>
       <c r="D68" t="s">
         <v>157</v>
@@ -3165,7 +3489,7 @@
       <c r="G68">
         <v>411</v>
       </c>
-      <c r="H68" s="6" t="s">
+      <c r="H68" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3176,8 +3500,8 @@
       <c r="B69" t="s">
         <v>236</v>
       </c>
-      <c r="C69" s="3">
-        <v>519738</v>
+      <c r="C69" s="10" t="s">
+        <v>325</v>
       </c>
       <c r="D69" t="s">
         <v>157</v>
@@ -3191,7 +3515,7 @@
       <c r="G69">
         <v>411</v>
       </c>
-      <c r="H69" s="6" t="s">
+      <c r="H69" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3202,8 +3526,8 @@
       <c r="B70" t="s">
         <v>237</v>
       </c>
-      <c r="C70" s="3">
-        <v>519752</v>
+      <c r="C70" s="10" t="s">
+        <v>326</v>
       </c>
       <c r="D70" t="s">
         <v>157</v>
@@ -3217,7 +3541,7 @@
       <c r="G70">
         <v>412</v>
       </c>
-      <c r="H70" s="6" t="s">
+      <c r="H70" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3228,8 +3552,8 @@
       <c r="B71" t="s">
         <v>238</v>
       </c>
-      <c r="C71" s="3">
-        <v>519755</v>
+      <c r="C71" s="10" t="s">
+        <v>327</v>
       </c>
       <c r="D71" t="s">
         <v>157</v>
@@ -3243,7 +3567,7 @@
       <c r="G71">
         <v>412</v>
       </c>
-      <c r="H71" s="6" t="s">
+      <c r="H71" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3254,8 +3578,8 @@
       <c r="B72" t="s">
         <v>239</v>
       </c>
-      <c r="C72" s="3">
-        <v>485011</v>
+      <c r="C72" s="10" t="s">
+        <v>328</v>
       </c>
       <c r="D72" t="s">
         <v>157</v>
@@ -3269,7 +3593,7 @@
       <c r="G72">
         <v>412</v>
       </c>
-      <c r="H72" s="6" t="s">
+      <c r="H72" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3280,8 +3604,8 @@
       <c r="B73" t="s">
         <v>209</v>
       </c>
-      <c r="C73" s="3">
-        <v>1338</v>
+      <c r="C73" s="10" t="s">
+        <v>329</v>
       </c>
       <c r="D73" t="s">
         <v>157</v>
@@ -3295,7 +3619,7 @@
       <c r="G73">
         <v>412</v>
       </c>
-      <c r="H73" s="6" t="s">
+      <c r="H73" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3306,8 +3630,8 @@
       <c r="B74" t="s">
         <v>210</v>
       </c>
-      <c r="C74" s="3">
-        <v>7749</v>
+      <c r="C74" s="10" t="s">
+        <v>330</v>
       </c>
       <c r="D74" t="s">
         <v>157</v>
@@ -3321,7 +3645,7 @@
       <c r="G74">
         <v>412</v>
       </c>
-      <c r="H74" s="6" t="s">
+      <c r="H74" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3332,8 +3656,8 @@
       <c r="B75" t="s">
         <v>211</v>
       </c>
-      <c r="C75" s="3">
-        <v>6060</v>
+      <c r="C75" s="10" t="s">
+        <v>331</v>
       </c>
       <c r="D75" t="s">
         <v>157</v>
@@ -3347,7 +3671,7 @@
       <c r="G75">
         <v>412</v>
       </c>
-      <c r="H75" s="6" t="s">
+      <c r="H75" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3358,8 +3682,8 @@
       <c r="B76" t="s">
         <v>212</v>
       </c>
-      <c r="C76" s="3">
-        <v>2147</v>
+      <c r="C76" s="10" t="s">
+        <v>332</v>
       </c>
       <c r="D76" t="s">
         <v>157</v>
@@ -3373,7 +3697,7 @@
       <c r="G76">
         <v>412</v>
       </c>
-      <c r="H76" s="6" t="s">
+      <c r="H76" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3384,8 +3708,8 @@
       <c r="B77" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C77" s="3">
-        <v>3376</v>
+      <c r="C77" s="10" t="s">
+        <v>333</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>31</v>
@@ -3399,7 +3723,7 @@
       <c r="G77" s="1">
         <v>511</v>
       </c>
-      <c r="H77" s="6" t="s">
+      <c r="H77" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3410,8 +3734,8 @@
       <c r="B78" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C78" s="3">
-        <v>519153</v>
+      <c r="C78" s="10" t="s">
+        <v>334</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>31</v>
@@ -3425,7 +3749,7 @@
       <c r="G78" s="1">
         <v>511</v>
       </c>
-      <c r="H78" s="6" t="s">
+      <c r="H78" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3436,8 +3760,8 @@
       <c r="B79" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C79" s="3">
-        <v>2086</v>
+      <c r="C79" s="10" t="s">
+        <v>335</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>31</v>
@@ -3451,7 +3775,7 @@
       <c r="G79" s="1">
         <v>511</v>
       </c>
-      <c r="H79" s="6" t="s">
+      <c r="H79" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3462,8 +3786,8 @@
       <c r="B80" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C80" s="3">
-        <v>6320</v>
+      <c r="C80" s="10" t="s">
+        <v>336</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>31</v>
@@ -3477,7 +3801,7 @@
       <c r="G80" s="1">
         <v>511</v>
       </c>
-      <c r="H80" s="6" t="s">
+      <c r="H80" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3488,8 +3812,8 @@
       <c r="B81" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C81" s="3">
-        <v>204001</v>
+      <c r="C81" s="10" t="s">
+        <v>337</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>31</v>
@@ -3503,7 +3827,7 @@
       <c r="G81" s="1">
         <v>511</v>
       </c>
-      <c r="H81" s="6"/>
+      <c r="H81" s="5"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
@@ -3512,8 +3836,8 @@
       <c r="B82" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C82" s="3">
-        <v>204007</v>
+      <c r="C82" s="10" t="s">
+        <v>338</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>31</v>
@@ -3527,7 +3851,7 @@
       <c r="G82" s="1">
         <v>511</v>
       </c>
-      <c r="H82" s="6"/>
+      <c r="H82" s="5"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
@@ -3536,8 +3860,8 @@
       <c r="B83" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C83" s="3">
-        <v>131810</v>
+      <c r="C83" s="10" t="s">
+        <v>339</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>31</v>
@@ -3551,7 +3875,7 @@
       <c r="G83" s="1">
         <v>511</v>
       </c>
-      <c r="H83" s="6"/>
+      <c r="H83" s="5"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
@@ -3560,8 +3884,8 @@
       <c r="B84" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C84" s="3">
-        <v>131800</v>
+      <c r="C84" s="10" t="s">
+        <v>340</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>31</v>
@@ -3575,7 +3899,7 @@
       <c r="G84" s="1">
         <v>511</v>
       </c>
-      <c r="H84" s="6"/>
+      <c r="H84" s="5"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
@@ -3584,8 +3908,8 @@
       <c r="B85" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C85" s="3">
-        <v>511010</v>
+      <c r="C85" s="10" t="s">
+        <v>341</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>31</v>
@@ -3599,7 +3923,7 @@
       <c r="G85" s="1">
         <v>511</v>
       </c>
-      <c r="H85" s="6" t="s">
+      <c r="H85" s="5" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3610,8 +3934,8 @@
       <c r="B86" t="s">
         <v>241</v>
       </c>
-      <c r="C86" s="3">
-        <v>6793</v>
+      <c r="C86" s="10" t="s">
+        <v>342</v>
       </c>
       <c r="D86" t="s">
         <v>31</v>
@@ -3625,7 +3949,7 @@
       <c r="G86" s="1">
         <v>512</v>
       </c>
-      <c r="H86" s="6" t="s">
+      <c r="H86" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3636,8 +3960,8 @@
       <c r="B87" t="s">
         <v>142</v>
       </c>
-      <c r="C87" s="3">
-        <v>519718</v>
+      <c r="C87" s="10" t="s">
+        <v>343</v>
       </c>
       <c r="D87" t="s">
         <v>31</v>
@@ -3651,7 +3975,7 @@
       <c r="G87" s="1">
         <v>512</v>
       </c>
-      <c r="H87" s="6" t="s">
+      <c r="H87" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3662,8 +3986,8 @@
       <c r="B88" t="s">
         <v>143</v>
       </c>
-      <c r="C88" s="3">
-        <v>519723</v>
+      <c r="C88" s="10" t="s">
+        <v>344</v>
       </c>
       <c r="D88" t="s">
         <v>31</v>
@@ -3677,7 +4001,7 @@
       <c r="G88" s="1">
         <v>512</v>
       </c>
-      <c r="H88" s="6" t="s">
+      <c r="H88" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3688,8 +4012,8 @@
       <c r="B89" t="s">
         <v>242</v>
       </c>
-      <c r="C89">
-        <v>519776</v>
+      <c r="C89" s="11" t="s">
+        <v>345</v>
       </c>
       <c r="D89" t="s">
         <v>31</v>
@@ -3703,7 +4027,7 @@
       <c r="G89" s="1">
         <v>512</v>
       </c>
-      <c r="H89" s="6" t="s">
+      <c r="H89" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3714,8 +4038,8 @@
       <c r="B90" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C90" s="3">
-        <v>340001</v>
+      <c r="C90" s="10" t="s">
+        <v>346</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>31</v>
@@ -3729,7 +4053,7 @@
       <c r="G90" s="1">
         <v>512</v>
       </c>
-      <c r="H90" s="6" t="s">
+      <c r="H90" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3740,8 +4064,8 @@
       <c r="B91" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C91" s="3">
-        <v>110027</v>
+      <c r="C91" s="10" t="s">
+        <v>347</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>31</v>
@@ -3755,7 +4079,7 @@
       <c r="G91" s="1">
         <v>512</v>
       </c>
-      <c r="H91" s="6" t="s">
+      <c r="H91" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3766,8 +4090,8 @@
       <c r="B92" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C92" s="3">
-        <v>164902</v>
+      <c r="C92" s="10" t="s">
+        <v>348</v>
       </c>
       <c r="D92" t="s">
         <v>31</v>
@@ -3781,7 +4105,7 @@
       <c r="G92" s="1">
         <v>512</v>
       </c>
-      <c r="H92" s="6" t="s">
+      <c r="H92" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3792,8 +4116,8 @@
       <c r="B93" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C93" s="3">
-        <v>519977</v>
+      <c r="C93" s="10" t="s">
+        <v>349</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>31</v>
@@ -3807,7 +4131,7 @@
       <c r="G93" s="1">
         <v>512</v>
       </c>
-      <c r="H93" s="6" t="s">
+      <c r="H93" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3818,8 +4142,8 @@
       <c r="B94" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C94" s="3">
-        <v>1061</v>
+      <c r="C94" s="10" t="s">
+        <v>350</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>31</v>
@@ -3833,7 +4157,7 @@
       <c r="G94" s="1">
         <v>521</v>
       </c>
-      <c r="H94" s="6" t="s">
+      <c r="H94" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3844,8 +4168,8 @@
       <c r="B95" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C95" s="3">
-        <v>518880</v>
+      <c r="C95" s="10" t="s">
+        <v>351</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>22</v>
@@ -3859,7 +4183,7 @@
       <c r="G95" s="1">
         <v>611</v>
       </c>
-      <c r="H95" s="6" t="s">
+      <c r="H95" s="5" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3870,8 +4194,8 @@
       <c r="B96" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C96" s="3">
-        <v>216</v>
+      <c r="C96" s="10" t="s">
+        <v>352</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>22</v>
@@ -3885,7 +4209,7 @@
       <c r="G96" s="1">
         <v>611</v>
       </c>
-      <c r="H96" s="6" t="s">
+      <c r="H96" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3896,8 +4220,8 @@
       <c r="B97" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C97" s="3">
-        <v>999979</v>
+      <c r="C97" s="10" t="s">
+        <v>353</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>22</v>
@@ -3911,7 +4235,7 @@
       <c r="G97" s="1">
         <v>612</v>
       </c>
-      <c r="H97" s="7"/>
+      <c r="H97" s="6"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
@@ -3920,8 +4244,8 @@
       <c r="B98" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C98" s="3">
-        <v>162411</v>
+      <c r="C98" s="10" t="s">
+        <v>354</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>22</v>
@@ -3935,7 +4259,7 @@
       <c r="G98" s="1">
         <v>613</v>
       </c>
-      <c r="H98" s="6" t="s">
+      <c r="H98" s="5" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3946,8 +4270,8 @@
       <c r="B99" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C99" s="3">
-        <v>501018</v>
+      <c r="C99" s="10" t="s">
+        <v>355</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>22</v>
@@ -3961,7 +4285,7 @@
       <c r="G99" s="1">
         <v>613</v>
       </c>
-      <c r="H99" s="6" t="s">
+      <c r="H99" s="5" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3972,8 +4296,8 @@
       <c r="B100" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C100" s="3">
-        <v>160416</v>
+      <c r="C100" s="10" t="s">
+        <v>356</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>22</v>
@@ -3987,7 +4311,7 @@
       <c r="G100" s="1">
         <v>613</v>
       </c>
-      <c r="H100" s="6" t="s">
+      <c r="H100" s="5" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3998,8 +4322,8 @@
       <c r="B101" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C101" s="3">
-        <v>999988</v>
+      <c r="C101" s="10" t="s">
+        <v>357</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>135</v>
@@ -4013,7 +4337,7 @@
       <c r="G101" s="1">
         <v>988</v>
       </c>
-      <c r="H101" s="7"/>
+      <c r="H101" s="6"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
@@ -4022,8 +4346,8 @@
       <c r="B102" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C102" s="3">
-        <v>999989</v>
+      <c r="C102" s="10" t="s">
+        <v>358</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>135</v>
@@ -4037,7 +4361,7 @@
       <c r="G102" s="1">
         <v>989</v>
       </c>
-      <c r="H102" s="7"/>
+      <c r="H102" s="6"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
@@ -4046,8 +4370,8 @@
       <c r="B103" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C103" s="3">
-        <v>999997</v>
+      <c r="C103" s="10" t="s">
+        <v>359</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>5</v>
@@ -4061,7 +4385,7 @@
       <c r="G103" s="1">
         <v>997</v>
       </c>
-      <c r="H103" s="7"/>
+      <c r="H103" s="6"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
@@ -4070,8 +4394,8 @@
       <c r="B104" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C104" s="3">
-        <v>999998</v>
+      <c r="C104" s="10" t="s">
+        <v>360</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>5</v>
@@ -4085,7 +4409,7 @@
       <c r="G104" s="1">
         <v>998</v>
       </c>
-      <c r="H104" s="7"/>
+      <c r="H104" s="6"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
@@ -4094,8 +4418,8 @@
       <c r="B105" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C105" s="3">
-        <v>999999</v>
+      <c r="C105" s="10" t="s">
+        <v>361</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>5</v>
@@ -4117,8 +4441,8 @@
       <c r="B106" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C106" s="3">
-        <v>511990</v>
+      <c r="C106" s="10" t="s">
+        <v>362</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>5</v>
@@ -4132,7 +4456,7 @@
       <c r="G106" s="1">
         <v>999</v>
       </c>
-      <c r="H106" s="7"/>
+      <c r="H106" s="6"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
@@ -4141,8 +4465,8 @@
       <c r="B107" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C107" s="3">
-        <v>940018</v>
+      <c r="C107" s="10" t="s">
+        <v>363</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>5</v>
@@ -4156,7 +4480,7 @@
       <c r="G107" s="1">
         <v>999</v>
       </c>
-      <c r="H107" s="7"/>
+      <c r="H107" s="6"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
@@ -4165,8 +4489,8 @@
       <c r="B108" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C108" s="3">
-        <v>511980</v>
+      <c r="C108" s="10" t="s">
+        <v>364</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>5</v>
@@ -4180,7 +4504,7 @@
       <c r="G108" s="1">
         <v>999</v>
       </c>
-      <c r="H108" s="7"/>
+      <c r="H108" s="6"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
@@ -4189,8 +4513,8 @@
       <c r="B109" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C109" s="3">
-        <v>511880</v>
+      <c r="C109" s="10" t="s">
+        <v>365</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>5</v>
@@ -4204,10 +4528,10 @@
       <c r="G109" s="1">
         <v>999</v>
       </c>
-      <c r="H109" s="7"/>
+      <c r="H109" s="6"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H110" s="7"/>
+      <c r="H110" s="6"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H109">

--- a/category/资产配置分类表.xlsx
+++ b/category/资产配置分类表.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\deal-record\category\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B295B48F-0A9A-4FB8-9310-535020C0A032}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559C8D5D-D976-454B-A191-7F2C9195451E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A2CED1EC-343A-4CFC-976C-17F1726B3D68}"/>
   </bookViews>
   <sheets>
     <sheet name="资产分类" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">资产分类!$A$1:$H$109</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="369">
   <si>
     <t>无息外借款</t>
   </si>
@@ -526,19 +529,6 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>场内</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
       <t>场外</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -608,10 +598,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>场内</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>信息科技</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1277,6 +1263,26 @@
   </si>
   <si>
     <t>511880</t>
+  </si>
+  <si>
+    <t>沪市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆金所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1383,7 +1389,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1408,6 +1414,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1726,8 +1735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7002D332-7AD6-42B5-A99D-39647A47F5B6}">
   <dimension ref="A1:H110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C109"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1744,7 +1753,7 @@
         <v>130</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>129</v>
@@ -1762,7 +1771,7 @@
         <v>150</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1773,7 +1782,7 @@
         <v>125</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -1787,8 +1796,8 @@
       <c r="G2" s="1">
         <v>111</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>151</v>
+      <c r="H2" s="8" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1796,10 +1805,10 @@
         <v>124</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
@@ -1814,18 +1823,18 @@
         <v>111</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -1840,7 +1849,7 @@
         <v>111</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1848,10 +1857,10 @@
         <v>122</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -1866,7 +1875,7 @@
         <v>112</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1874,10 +1883,10 @@
         <v>120</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -1891,8 +1900,8 @@
       <c r="G6" s="1">
         <v>113</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>151</v>
+      <c r="H6" s="8" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1900,10 +1909,10 @@
         <v>119</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
@@ -1918,7 +1927,7 @@
         <v>113</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1926,10 +1935,10 @@
         <v>118</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -1944,18 +1953,18 @@
         <v>113</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -1970,7 +1979,7 @@
         <v>113</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1978,10 +1987,10 @@
         <v>116</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>13</v>
@@ -1996,7 +2005,7 @@
         <v>114</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -2004,10 +2013,10 @@
         <v>115</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -2022,7 +2031,7 @@
         <v>114</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -2030,10 +2039,10 @@
         <v>113</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -2048,7 +2057,7 @@
         <v>115</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -2056,10 +2065,10 @@
         <v>111</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -2074,7 +2083,7 @@
         <v>116</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -2085,7 +2094,7 @@
         <v>108</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -2099,8 +2108,8 @@
       <c r="G14" s="1">
         <v>117</v>
       </c>
-      <c r="H14" s="5" t="s">
-        <v>151</v>
+      <c r="H14" s="8" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -2111,7 +2120,7 @@
         <v>107</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>13</v>
@@ -2125,8 +2134,8 @@
       <c r="G15" s="1">
         <v>121</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>151</v>
+      <c r="H15" s="8" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -2134,10 +2143,10 @@
         <v>106</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -2152,7 +2161,7 @@
         <v>121</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -2160,10 +2169,10 @@
         <v>105</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
@@ -2178,7 +2187,7 @@
         <v>121</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -2186,10 +2195,10 @@
         <v>104</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>13</v>
@@ -2204,7 +2213,7 @@
         <v>121</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -2212,10 +2221,10 @@
         <v>103</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
@@ -2230,7 +2239,7 @@
         <v>121</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -2238,10 +2247,10 @@
         <v>102</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
@@ -2256,7 +2265,7 @@
         <v>121</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -2264,10 +2273,10 @@
         <v>100</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
@@ -2282,7 +2291,7 @@
         <v>122</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -2293,7 +2302,7 @@
         <v>98</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>13</v>
@@ -2307,8 +2316,8 @@
       <c r="G22" s="1">
         <v>123</v>
       </c>
-      <c r="H22" s="5" t="s">
-        <v>151</v>
+      <c r="H22" s="8" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -2316,10 +2325,10 @@
         <v>97</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>13</v>
@@ -2334,7 +2343,7 @@
         <v>123</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -2342,10 +2351,10 @@
         <v>96</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>13</v>
@@ -2360,7 +2369,7 @@
         <v>123</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -2371,7 +2380,7 @@
         <v>91</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>13</v>
@@ -2385,8 +2394,8 @@
       <c r="G25" s="1">
         <v>124</v>
       </c>
-      <c r="H25" s="5" t="s">
-        <v>151</v>
+      <c r="H25" s="8" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -2394,10 +2403,10 @@
         <v>94</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>13</v>
@@ -2412,7 +2421,7 @@
         <v>124</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -2420,10 +2429,10 @@
         <v>93</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>13</v>
@@ -2438,7 +2447,7 @@
         <v>124</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -2446,10 +2455,10 @@
         <v>90</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>13</v>
@@ -2464,7 +2473,7 @@
         <v>131</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -2472,10 +2481,10 @@
         <v>89</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>13</v>
@@ -2490,18 +2499,18 @@
         <v>131</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>13</v>
@@ -2516,7 +2525,7 @@
         <v>131</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>169</v>
+        <v>364</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -2524,10 +2533,10 @@
         <v>87</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>13</v>
@@ -2542,7 +2551,7 @@
         <v>132</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -2550,10 +2559,10 @@
         <v>84</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>13</v>
@@ -2568,7 +2577,7 @@
         <v>141</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -2576,10 +2585,10 @@
         <v>82</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>13</v>
@@ -2594,7 +2603,7 @@
         <v>142</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -2602,10 +2611,10 @@
         <v>81</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>13</v>
@@ -2619,8 +2628,8 @@
       <c r="G34" s="1">
         <v>142</v>
       </c>
-      <c r="H34" s="5" t="s">
-        <v>151</v>
+      <c r="H34" s="8" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -2628,10 +2637,10 @@
         <v>80</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>13</v>
@@ -2646,7 +2655,7 @@
         <v>142</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -2657,7 +2666,7 @@
         <v>78</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>13</v>
@@ -2671,8 +2680,8 @@
       <c r="G36" s="1">
         <v>143</v>
       </c>
-      <c r="H36" s="5" t="s">
-        <v>151</v>
+      <c r="H36" s="8" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -2680,10 +2689,10 @@
         <v>77</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>13</v>
@@ -2698,7 +2707,7 @@
         <v>143</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -2709,7 +2718,7 @@
         <v>75</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>13</v>
@@ -2723,8 +2732,8 @@
       <c r="G38" s="1">
         <v>144</v>
       </c>
-      <c r="H38" s="5" t="s">
-        <v>151</v>
+      <c r="H38" s="8" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -2732,10 +2741,10 @@
         <v>74</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>13</v>
@@ -2750,7 +2759,7 @@
         <v>144</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -2761,7 +2770,7 @@
         <v>72</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>13</v>
@@ -2775,8 +2784,8 @@
       <c r="G40" s="1">
         <v>145</v>
       </c>
-      <c r="H40" s="5" t="s">
-        <v>151</v>
+      <c r="H40" s="8" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -2784,10 +2793,10 @@
         <v>71</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>13</v>
@@ -2802,18 +2811,18 @@
         <v>145</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>13</v>
@@ -2822,13 +2831,13 @@
         <v>64</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G42" s="1">
         <v>146</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -2836,10 +2845,10 @@
         <v>69</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>13</v>
@@ -2854,7 +2863,7 @@
         <v>147</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -2862,10 +2871,10 @@
         <v>67</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>13</v>
@@ -2880,7 +2889,7 @@
         <v>148</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -2888,10 +2897,10 @@
         <v>65</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>13</v>
@@ -2906,7 +2915,7 @@
         <v>148</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -2917,7 +2926,7 @@
         <v>20</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>13</v>
@@ -2931,7 +2940,9 @@
       <c r="G46" s="1">
         <v>151</v>
       </c>
-      <c r="H46" s="6"/>
+      <c r="H46" s="8" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
@@ -2941,7 +2952,7 @@
         <v>19</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -2955,7 +2966,9 @@
       <c r="G47" s="1">
         <v>151</v>
       </c>
-      <c r="H47" s="6"/>
+      <c r="H47" s="8" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -2965,7 +2978,7 @@
         <v>18</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>13</v>
@@ -2979,7 +2992,9 @@
       <c r="G48" s="1">
         <v>151</v>
       </c>
-      <c r="H48" s="6"/>
+      <c r="H48" s="8" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
@@ -2989,7 +3004,7 @@
         <v>17</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>13</v>
@@ -3003,7 +3018,9 @@
       <c r="G49" s="1">
         <v>151</v>
       </c>
-      <c r="H49" s="6"/>
+      <c r="H49" s="8" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
@@ -3013,7 +3030,7 @@
         <v>16</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>13</v>
@@ -3027,7 +3044,9 @@
       <c r="G50" s="1">
         <v>151</v>
       </c>
-      <c r="H50" s="6"/>
+      <c r="H50" s="8" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
@@ -3037,7 +3056,7 @@
         <v>15</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>13</v>
@@ -3051,7 +3070,9 @@
       <c r="G51" s="1">
         <v>151</v>
       </c>
-      <c r="H51" s="6"/>
+      <c r="H51" s="8" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
@@ -3061,7 +3082,7 @@
         <v>14</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>13</v>
@@ -3075,17 +3096,19 @@
       <c r="G52" s="1">
         <v>151</v>
       </c>
-      <c r="H52" s="6"/>
+      <c r="H52" s="8" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>54</v>
@@ -3100,7 +3123,7 @@
         <v>211</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -3111,7 +3134,7 @@
         <v>62</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>54</v>
@@ -3125,8 +3148,8 @@
       <c r="G54" s="1">
         <v>211</v>
       </c>
-      <c r="H54" s="5" t="s">
-        <v>151</v>
+      <c r="H54" s="8" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -3137,7 +3160,7 @@
         <v>60</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>54</v>
@@ -3151,8 +3174,8 @@
       <c r="G55" s="1">
         <v>212</v>
       </c>
-      <c r="H55" s="5" t="s">
-        <v>151</v>
+      <c r="H55" s="8" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -3160,10 +3183,10 @@
         <v>58</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>54</v>
@@ -3178,7 +3201,7 @@
         <v>213</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -3186,10 +3209,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>54</v>
@@ -3204,18 +3227,18 @@
         <v>221</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>54</v>
@@ -3230,18 +3253,18 @@
         <v>221</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>47</v>
@@ -3250,24 +3273,24 @@
         <v>50</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G59" s="1">
         <v>312</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>47</v>
@@ -3276,13 +3299,13 @@
         <v>50</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G60" s="1">
         <v>313</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -3290,10 +3313,10 @@
         <v>51</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>47</v>
@@ -3308,18 +3331,18 @@
         <v>314</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>47</v>
@@ -3328,13 +3351,13 @@
         <v>50</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G62" s="1">
         <v>315</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -3342,10 +3365,10 @@
         <v>48</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>47</v>
@@ -3360,47 +3383,47 @@
         <v>321</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G64" s="1">
         <v>331</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>169</v>
+        <v>364</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D65" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E65" t="s">
         <v>147</v>
@@ -3412,59 +3435,59 @@
         <v>411</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D66" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E66" t="s">
         <v>147</v>
       </c>
       <c r="F66" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G66">
         <v>411</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="D67" t="s">
         <v>250</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="D67" t="s">
-        <v>252</v>
       </c>
       <c r="E67" t="s">
         <v>147</v>
       </c>
       <c r="F67" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G67">
         <v>411</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -3475,10 +3498,10 @@
         <v>141</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D68" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E68" t="s">
         <v>147</v>
@@ -3490,21 +3513,21 @@
         <v>411</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B69" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E69" t="s">
         <v>147</v>
@@ -3516,7 +3539,7 @@
         <v>411</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
@@ -3524,13 +3547,13 @@
         <v>144</v>
       </c>
       <c r="B70" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D70" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E70" t="s">
         <v>147</v>
@@ -3542,7 +3565,7 @@
         <v>412</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
@@ -3550,13 +3573,13 @@
         <v>145</v>
       </c>
       <c r="B71" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D71" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E71" t="s">
         <v>147</v>
@@ -3568,21 +3591,21 @@
         <v>412</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B72" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D72" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E72" t="s">
         <v>147</v>
@@ -3594,21 +3617,21 @@
         <v>412</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B73" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D73" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E73" t="s">
         <v>147</v>
@@ -3620,21 +3643,21 @@
         <v>412</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B74" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D74" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E74" t="s">
         <v>147</v>
@@ -3646,21 +3669,21 @@
         <v>412</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B75" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D75" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E75" t="s">
         <v>147</v>
@@ -3672,21 +3695,21 @@
         <v>412</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B76" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D76" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E76" t="s">
         <v>147</v>
@@ -3698,7 +3721,7 @@
         <v>412</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
@@ -3706,10 +3729,10 @@
         <v>44</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>31</v>
@@ -3724,18 +3747,18 @@
         <v>511</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>31</v>
@@ -3750,7 +3773,7 @@
         <v>511</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
@@ -3758,10 +3781,10 @@
         <v>11</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>31</v>
@@ -3776,18 +3799,18 @@
         <v>511</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>31</v>
@@ -3802,7 +3825,7 @@
         <v>511</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -3813,7 +3836,7 @@
         <v>43</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>31</v>
@@ -3827,7 +3850,9 @@
       <c r="G81" s="1">
         <v>511</v>
       </c>
-      <c r="H81" s="5"/>
+      <c r="H81" s="8" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
@@ -3837,7 +3862,7 @@
         <v>42</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>31</v>
@@ -3851,7 +3876,9 @@
       <c r="G82" s="1">
         <v>511</v>
       </c>
-      <c r="H82" s="5"/>
+      <c r="H82" s="8" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
@@ -3861,7 +3888,7 @@
         <v>41</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>31</v>
@@ -3875,7 +3902,9 @@
       <c r="G83" s="1">
         <v>511</v>
       </c>
-      <c r="H83" s="5"/>
+      <c r="H83" s="8" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
@@ -3885,7 +3914,7 @@
         <v>40</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>31</v>
@@ -3899,7 +3928,9 @@
       <c r="G84" s="1">
         <v>511</v>
       </c>
-      <c r="H84" s="5"/>
+      <c r="H84" s="8" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
@@ -3909,7 +3940,7 @@
         <v>39</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>31</v>
@@ -3923,8 +3954,8 @@
       <c r="G85" s="1">
         <v>511</v>
       </c>
-      <c r="H85" s="5" t="s">
-        <v>151</v>
+      <c r="H85" s="8" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
@@ -3932,10 +3963,10 @@
         <v>140</v>
       </c>
       <c r="B86" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D86" t="s">
         <v>31</v>
@@ -3950,7 +3981,7 @@
         <v>512</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
@@ -3961,7 +3992,7 @@
         <v>142</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D87" t="s">
         <v>31</v>
@@ -3976,7 +4007,7 @@
         <v>512</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
@@ -3987,7 +4018,7 @@
         <v>143</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D88" t="s">
         <v>31</v>
@@ -4002,7 +4033,7 @@
         <v>512</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
@@ -4010,10 +4041,10 @@
         <v>146</v>
       </c>
       <c r="B89" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D89" t="s">
         <v>31</v>
@@ -4028,7 +4059,7 @@
         <v>512</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
@@ -4036,10 +4067,10 @@
         <v>37</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>31</v>
@@ -4054,7 +4085,7 @@
         <v>512</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
@@ -4062,10 +4093,10 @@
         <v>36</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>31</v>
@@ -4080,18 +4111,18 @@
         <v>512</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D92" t="s">
         <v>31</v>
@@ -4106,7 +4137,7 @@
         <v>512</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
@@ -4114,10 +4145,10 @@
         <v>35</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>31</v>
@@ -4132,7 +4163,7 @@
         <v>512</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
@@ -4140,10 +4171,10 @@
         <v>32</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>31</v>
@@ -4158,7 +4189,7 @@
         <v>521</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
@@ -4169,7 +4200,7 @@
         <v>28</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>22</v>
@@ -4183,8 +4214,8 @@
       <c r="G95" s="1">
         <v>611</v>
       </c>
-      <c r="H95" s="5" t="s">
-        <v>151</v>
+      <c r="H95" s="8" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
@@ -4192,10 +4223,10 @@
         <v>27</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>22</v>
@@ -4210,7 +4241,7 @@
         <v>611</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
@@ -4221,7 +4252,7 @@
         <v>25</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>22</v>
@@ -4235,17 +4266,19 @@
       <c r="G97" s="1">
         <v>612</v>
       </c>
-      <c r="H97" s="6"/>
+      <c r="H97" s="12" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>22</v>
@@ -4259,8 +4292,8 @@
       <c r="G98" s="1">
         <v>613</v>
       </c>
-      <c r="H98" s="5" t="s">
-        <v>151</v>
+      <c r="H98" s="8" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
@@ -4271,7 +4304,7 @@
         <v>23</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>22</v>
@@ -4285,19 +4318,19 @@
       <c r="G99" s="1">
         <v>613</v>
       </c>
-      <c r="H99" s="5" t="s">
-        <v>151</v>
+      <c r="H99" s="8" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>22</v>
@@ -4311,8 +4344,8 @@
       <c r="G100" s="1">
         <v>613</v>
       </c>
-      <c r="H100" s="5" t="s">
-        <v>151</v>
+      <c r="H100" s="8" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
@@ -4323,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>135</v>
@@ -4337,7 +4370,9 @@
       <c r="G101" s="1">
         <v>988</v>
       </c>
-      <c r="H101" s="6"/>
+      <c r="H101" s="12" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
@@ -4347,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>135</v>
@@ -4361,7 +4396,9 @@
       <c r="G102" s="1">
         <v>989</v>
       </c>
-      <c r="H102" s="6"/>
+      <c r="H102" s="12" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
@@ -4371,7 +4408,7 @@
         <v>2</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>5</v>
@@ -4385,7 +4422,9 @@
       <c r="G103" s="1">
         <v>997</v>
       </c>
-      <c r="H103" s="6"/>
+      <c r="H103" s="12" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
@@ -4395,7 +4434,7 @@
         <v>3</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>5</v>
@@ -4409,7 +4448,9 @@
       <c r="G104" s="1">
         <v>998</v>
       </c>
-      <c r="H104" s="6"/>
+      <c r="H104" s="12" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
@@ -4419,7 +4460,7 @@
         <v>10</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>5</v>
@@ -4432,6 +4473,9 @@
       </c>
       <c r="G105" s="1">
         <v>999</v>
+      </c>
+      <c r="H105" s="12" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
@@ -4442,7 +4486,7 @@
         <v>9</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>5</v>
@@ -4456,7 +4500,9 @@
       <c r="G106" s="1">
         <v>999</v>
       </c>
-      <c r="H106" s="6"/>
+      <c r="H106" s="8" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
@@ -4466,7 +4512,7 @@
         <v>8</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>5</v>
@@ -4480,7 +4526,9 @@
       <c r="G107" s="1">
         <v>999</v>
       </c>
-      <c r="H107" s="6"/>
+      <c r="H107" s="12" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
@@ -4490,7 +4538,7 @@
         <v>7</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>5</v>
@@ -4504,7 +4552,9 @@
       <c r="G108" s="1">
         <v>999</v>
       </c>
-      <c r="H108" s="6"/>
+      <c r="H108" s="8" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
@@ -4514,7 +4564,7 @@
         <v>6</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>5</v>
@@ -4528,7 +4578,9 @@
       <c r="G109" s="1">
         <v>999</v>
       </c>
-      <c r="H109" s="6"/>
+      <c r="H109" s="8" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H110" s="6"/>

--- a/category/资产配置分类表.xlsx
+++ b/category/资产配置分类表.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\deal-record\category\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559C8D5D-D976-454B-A191-7F2C9195451E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E5D621-CD10-4EBC-BFC3-4B20177C99B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A2CED1EC-343A-4CFC-976C-17F1726B3D68}"/>
+    <workbookView xWindow="33105" yWindow="3585" windowWidth="5295" windowHeight="13065" xr2:uid="{A2CED1EC-343A-4CFC-976C-17F1726B3D68}"/>
   </bookViews>
   <sheets>
     <sheet name="资产分类" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">资产分类!$A$1:$H$109</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">资产分类!$A$1:$H$112</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="378">
   <si>
     <t>无息外借款</t>
   </si>
@@ -1282,6 +1282,42 @@
   </si>
   <si>
     <t>陆金所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新华纯债添利B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新华纯债添利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>009104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南方初元中短债C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南方中短债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>007150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国金及第中短债债券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国金中短债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>003002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1733,10 +1769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7002D332-7AD6-42B5-A99D-39647A47F5B6}">
-  <dimension ref="A1:H110"/>
+  <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="H86" sqref="A86:H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3959,78 +3995,78 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>140</v>
-      </c>
-      <c r="B86" t="s">
-        <v>239</v>
+      <c r="A86" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>370</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="D86" t="s">
+        <v>371</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F86" t="s">
-        <v>33</v>
+      <c r="F86" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="G86" s="1">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H86" s="5" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>142</v>
-      </c>
-      <c r="B87" t="s">
-        <v>142</v>
+      <c r="A87" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>376</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="D87" t="s">
+        <v>377</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F87" t="s">
-        <v>33</v>
+      <c r="F87" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="G87" s="1">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H87" s="5" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>143</v>
-      </c>
-      <c r="B88" t="s">
-        <v>143</v>
+      <c r="A88" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>373</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="D88" t="s">
+        <v>374</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F88" t="s">
-        <v>33</v>
+      <c r="F88" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="G88" s="1">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H88" s="5" t="s">
         <v>151</v>
@@ -4038,13 +4074,13 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B89" t="s">
-        <v>240</v>
-      </c>
-      <c r="C89" s="11" t="s">
-        <v>343</v>
+        <v>239</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>340</v>
       </c>
       <c r="D89" t="s">
         <v>31</v>
@@ -4063,22 +4099,22 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>214</v>
+      <c r="A90" t="s">
+        <v>142</v>
+      </c>
+      <c r="B90" t="s">
+        <v>142</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="D90" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D90" t="s">
         <v>31</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E90" t="s">
         <v>34</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="F90" t="s">
         <v>33</v>
       </c>
       <c r="G90" s="1">
@@ -4089,22 +4125,22 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>241</v>
+      <c r="A91" t="s">
+        <v>143</v>
+      </c>
+      <c r="B91" t="s">
+        <v>143</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="D91" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D91" t="s">
         <v>31</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E91" t="s">
         <v>34</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="F91" t="s">
         <v>33</v>
       </c>
       <c r="G91" s="1">
@@ -4115,14 +4151,14 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>346</v>
+      <c r="A92" t="s">
+        <v>146</v>
+      </c>
+      <c r="B92" t="s">
+        <v>240</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>343</v>
       </c>
       <c r="D92" t="s">
         <v>31</v>
@@ -4142,13 +4178,13 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>31</v>
@@ -4168,25 +4204,25 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G94" s="1">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="H94" s="5" t="s">
         <v>151</v>
@@ -4194,51 +4230,51 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>28</v>
+        <v>158</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>28</v>
+        <v>215</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>26</v>
+        <v>346</v>
+      </c>
+      <c r="D95" t="s">
+        <v>31</v>
+      </c>
+      <c r="E95" t="s">
+        <v>34</v>
+      </c>
+      <c r="F95" t="s">
+        <v>33</v>
       </c>
       <c r="G95" s="1">
-        <v>611</v>
-      </c>
-      <c r="H95" s="8" t="s">
-        <v>364</v>
+        <v>512</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G96" s="1">
-        <v>611</v>
+        <v>512</v>
       </c>
       <c r="H96" s="5" t="s">
         <v>151</v>
@@ -4246,39 +4282,39 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>25</v>
+        <v>243</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G97" s="1">
-        <v>612</v>
-      </c>
-      <c r="H97" s="12" t="s">
-        <v>366</v>
+        <v>521</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>153</v>
+        <v>28</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>153</v>
+        <v>28</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>22</v>
@@ -4287,24 +4323,24 @@
         <v>22</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G98" s="1">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H98" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>23</v>
+        <v>244</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>22</v>
@@ -4313,24 +4349,24 @@
         <v>22</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G99" s="1">
-        <v>613</v>
-      </c>
-      <c r="H99" s="8" t="s">
-        <v>364</v>
+        <v>611</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>170</v>
+        <v>25</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>216</v>
+        <v>25</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>22</v>
@@ -4339,140 +4375,140 @@
         <v>22</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G100" s="1">
-        <v>613</v>
-      </c>
-      <c r="H100" s="8" t="s">
-        <v>365</v>
+        <v>612</v>
+      </c>
+      <c r="H100" s="12" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>137</v>
+        <v>22</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G101" s="1">
-        <v>988</v>
-      </c>
-      <c r="H101" s="12" t="s">
-        <v>367</v>
+        <v>613</v>
+      </c>
+      <c r="H101" s="8" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="G102" s="1">
-        <v>989</v>
-      </c>
-      <c r="H102" s="12" t="s">
-        <v>367</v>
+        <v>613</v>
+      </c>
+      <c r="H102" s="8" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>2</v>
+        <v>216</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="G103" s="1">
-        <v>997</v>
-      </c>
-      <c r="H103" s="12" t="s">
-        <v>367</v>
+        <v>613</v>
+      </c>
+      <c r="H103" s="8" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>5</v>
+        <v>135</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="G104" s="1">
-        <v>998</v>
+        <v>988</v>
       </c>
       <c r="H104" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>5</v>
+        <v>135</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="G105" s="1">
-        <v>999</v>
+        <v>989</v>
       </c>
       <c r="H105" s="12" t="s">
         <v>367</v>
@@ -4480,65 +4516,65 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>4</v>
+        <v>133</v>
       </c>
       <c r="G106" s="1">
-        <v>999</v>
-      </c>
-      <c r="H106" s="8" t="s">
-        <v>364</v>
+        <v>997</v>
+      </c>
+      <c r="H106" s="12" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>4</v>
+        <v>134</v>
       </c>
       <c r="G107" s="1">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H107" s="12" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>5</v>
@@ -4552,19 +4588,19 @@
       <c r="G108" s="1">
         <v>999</v>
       </c>
-      <c r="H108" s="8" t="s">
-        <v>364</v>
+      <c r="H108" s="12" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>5</v>
@@ -4583,10 +4619,88 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H110" s="6"/>
+      <c r="A110" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G110" s="1">
+        <v>999</v>
+      </c>
+      <c r="H110" s="12" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G111" s="1">
+        <v>999</v>
+      </c>
+      <c r="H111" s="8" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G112" s="1">
+        <v>999</v>
+      </c>
+      <c r="H112" s="8" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="113" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H113" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H109">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H112">
     <sortCondition ref="G37"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/category/资产配置分类表.xlsx
+++ b/category/资产配置分类表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\deal-record\category\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9286FA45-E7A7-4E78-AF81-A35E66B69FC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47FDB31-B5C9-493B-9537-24851F963C97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A2CED1EC-343A-4CFC-976C-17F1726B3D68}"/>
+    <workbookView xWindow="4545" yWindow="4545" windowWidth="28800" windowHeight="15435" xr2:uid="{A2CED1EC-343A-4CFC-976C-17F1726B3D68}"/>
   </bookViews>
   <sheets>
     <sheet name="资产分类" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="390">
   <si>
     <t>无息外借款</t>
   </si>
@@ -1323,10 +1323,6 @@
   </si>
   <si>
     <t>008975</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1795,8 +1791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7002D332-7AD6-42B5-A99D-39647A47F5B6}">
   <dimension ref="A1:XFD117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80:H80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1909,7 +1905,7 @@
         <v>111</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -2971,8 +2967,8 @@
       <c r="F45" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>379</v>
+      <c r="G45" s="1">
+        <v>148</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>151</v>
@@ -19923,7 +19919,7 @@
         <v>411</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -19949,7 +19945,7 @@
         <v>411</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
@@ -20188,13 +20184,13 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>379</v>
+      </c>
+      <c r="B78" t="s">
+        <v>381</v>
+      </c>
+      <c r="C78" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="B78" t="s">
-        <v>382</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="D78" t="s">
         <v>156</v>
@@ -20240,13 +20236,13 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="C80" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>31</v>
@@ -20529,7 +20525,7 @@
         <v>371</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>372</v>
@@ -20552,13 +20548,13 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C92" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>385</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>31</v>

--- a/category/资产配置分类表.xlsx
+++ b/category/资产配置分类表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\deal-record\category\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47FDB31-B5C9-493B-9537-24851F963C97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52D26E0-BAB4-4E54-B10E-0208F581163E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4545" yWindow="4545" windowWidth="28800" windowHeight="15435" xr2:uid="{A2CED1EC-343A-4CFC-976C-17F1726B3D68}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A2CED1EC-343A-4CFC-976C-17F1726B3D68}"/>
   </bookViews>
   <sheets>
     <sheet name="资产分类" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="389">
   <si>
     <t>无息外借款</t>
   </si>
@@ -489,14 +489,6 @@
   </si>
   <si>
     <t>股债混合</t>
-  </si>
-  <si>
-    <t>偏股</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>偏债</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -921,9 +913,6 @@
     <t>混合型</t>
   </si>
   <si>
-    <t>偏股</t>
-  </si>
-  <si>
     <t>南方宝元债券C</t>
   </si>
   <si>
@@ -1367,6 +1356,14 @@
   </si>
   <si>
     <t>270048</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏债</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1791,8 +1788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7002D332-7AD6-42B5-A99D-39647A47F5B6}">
   <dimension ref="A1:XFD117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1809,7 +1806,7 @@
         <v>130</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>129</v>
@@ -1824,10 +1821,10 @@
         <v>126</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1838,7 +1835,7 @@
         <v>125</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -1853,7 +1850,7 @@
         <v>111</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1861,10 +1858,10 @@
         <v>124</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
@@ -1879,18 +1876,18 @@
         <v>111</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -1905,7 +1902,7 @@
         <v>111</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1913,10 +1910,10 @@
         <v>122</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -1931,7 +1928,7 @@
         <v>112</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1939,10 +1936,10 @@
         <v>120</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -1957,7 +1954,7 @@
         <v>113</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1965,10 +1962,10 @@
         <v>119</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
@@ -1983,7 +1980,7 @@
         <v>113</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1991,10 +1988,10 @@
         <v>118</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -2009,18 +2006,18 @@
         <v>113</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -2035,7 +2032,7 @@
         <v>113</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -2043,10 +2040,10 @@
         <v>116</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>13</v>
@@ -2061,7 +2058,7 @@
         <v>114</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -2069,10 +2066,10 @@
         <v>115</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -2087,7 +2084,7 @@
         <v>114</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -2095,10 +2092,10 @@
         <v>113</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -2113,7 +2110,7 @@
         <v>115</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -2121,10 +2118,10 @@
         <v>111</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -2139,7 +2136,7 @@
         <v>116</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -2150,7 +2147,7 @@
         <v>108</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -2165,7 +2162,7 @@
         <v>117</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -2176,7 +2173,7 @@
         <v>107</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>13</v>
@@ -2191,7 +2188,7 @@
         <v>121</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -2199,10 +2196,10 @@
         <v>106</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -2217,7 +2214,7 @@
         <v>121</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -2225,10 +2222,10 @@
         <v>105</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
@@ -2243,7 +2240,7 @@
         <v>121</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -2251,10 +2248,10 @@
         <v>104</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>13</v>
@@ -2269,7 +2266,7 @@
         <v>121</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -2277,10 +2274,10 @@
         <v>103</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
@@ -2295,7 +2292,7 @@
         <v>121</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -2303,10 +2300,10 @@
         <v>102</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
@@ -2321,7 +2318,7 @@
         <v>121</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -2329,10 +2326,10 @@
         <v>100</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
@@ -2347,7 +2344,7 @@
         <v>122</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -2358,7 +2355,7 @@
         <v>98</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>13</v>
@@ -2373,7 +2370,7 @@
         <v>123</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -2381,10 +2378,10 @@
         <v>97</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>13</v>
@@ -2399,7 +2396,7 @@
         <v>123</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -2407,10 +2404,10 @@
         <v>96</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>13</v>
@@ -2425,7 +2422,7 @@
         <v>123</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -2436,7 +2433,7 @@
         <v>91</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>13</v>
@@ -2451,7 +2448,7 @@
         <v>124</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -2459,10 +2456,10 @@
         <v>94</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>13</v>
@@ -2477,7 +2474,7 @@
         <v>124</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -2485,10 +2482,10 @@
         <v>93</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>13</v>
@@ -2503,7 +2500,7 @@
         <v>124</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -2511,10 +2508,10 @@
         <v>90</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>13</v>
@@ -2529,7 +2526,7 @@
         <v>131</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -2537,10 +2534,10 @@
         <v>89</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>13</v>
@@ -2555,18 +2552,18 @@
         <v>131</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>13</v>
@@ -2581,7 +2578,7 @@
         <v>131</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -2589,10 +2586,10 @@
         <v>87</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>13</v>
@@ -2607,7 +2604,7 @@
         <v>132</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -2615,10 +2612,10 @@
         <v>84</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>13</v>
@@ -2633,7 +2630,7 @@
         <v>141</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:16384" x14ac:dyDescent="0.2">
@@ -2641,10 +2638,10 @@
         <v>82</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>13</v>
@@ -2659,7 +2656,7 @@
         <v>142</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:16384" x14ac:dyDescent="0.2">
@@ -2667,10 +2664,10 @@
         <v>81</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>13</v>
@@ -2685,7 +2682,7 @@
         <v>142</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="35" spans="1:16384" x14ac:dyDescent="0.2">
@@ -2693,10 +2690,10 @@
         <v>80</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>13</v>
@@ -2711,7 +2708,7 @@
         <v>142</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:16384" x14ac:dyDescent="0.2">
@@ -2722,7 +2719,7 @@
         <v>78</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>13</v>
@@ -2737,7 +2734,7 @@
         <v>143</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="37" spans="1:16384" x14ac:dyDescent="0.2">
@@ -2745,10 +2742,10 @@
         <v>77</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>13</v>
@@ -2763,7 +2760,7 @@
         <v>143</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:16384" x14ac:dyDescent="0.2">
@@ -2774,7 +2771,7 @@
         <v>75</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>13</v>
@@ -2789,7 +2786,7 @@
         <v>144</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="39" spans="1:16384" x14ac:dyDescent="0.2">
@@ -2797,10 +2794,10 @@
         <v>74</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>13</v>
@@ -2815,7 +2812,7 @@
         <v>144</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="1:16384" x14ac:dyDescent="0.2">
@@ -2826,7 +2823,7 @@
         <v>72</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>13</v>
@@ -2841,7 +2838,7 @@
         <v>145</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="41" spans="1:16384" x14ac:dyDescent="0.2">
@@ -2849,10 +2846,10 @@
         <v>71</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>13</v>
@@ -2867,18 +2864,18 @@
         <v>145</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>13</v>
@@ -2887,13 +2884,13 @@
         <v>64</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G42" s="1">
         <v>146</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:16384" x14ac:dyDescent="0.2">
@@ -2901,10 +2898,10 @@
         <v>69</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>13</v>
@@ -2919,7 +2916,7 @@
         <v>147</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="1:16384" x14ac:dyDescent="0.2">
@@ -2927,10 +2924,10 @@
         <v>67</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>13</v>
@@ -2945,18 +2942,18 @@
         <v>148</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>13</v>
@@ -2971,7 +2968,7 @@
         <v>148</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -19355,10 +19352,10 @@
         <v>65</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>13</v>
@@ -19373,7 +19370,7 @@
         <v>148</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="1:16384" x14ac:dyDescent="0.2">
@@ -19384,7 +19381,7 @@
         <v>20</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -19399,7 +19396,7 @@
         <v>151</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="48" spans="1:16384" x14ac:dyDescent="0.2">
@@ -19410,7 +19407,7 @@
         <v>19</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>13</v>
@@ -19425,7 +19422,7 @@
         <v>151</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -19436,7 +19433,7 @@
         <v>18</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>13</v>
@@ -19451,7 +19448,7 @@
         <v>151</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -19462,7 +19459,7 @@
         <v>17</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>13</v>
@@ -19477,7 +19474,7 @@
         <v>151</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
@@ -19488,7 +19485,7 @@
         <v>16</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>13</v>
@@ -19503,7 +19500,7 @@
         <v>151</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -19514,7 +19511,7 @@
         <v>15</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>13</v>
@@ -19529,7 +19526,7 @@
         <v>151</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -19540,7 +19537,7 @@
         <v>14</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>13</v>
@@ -19555,7 +19552,7 @@
         <v>151</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -19563,10 +19560,10 @@
         <v>63</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>54</v>
@@ -19581,7 +19578,7 @@
         <v>211</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -19592,7 +19589,7 @@
         <v>62</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>54</v>
@@ -19607,7 +19604,7 @@
         <v>211</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -19618,7 +19615,7 @@
         <v>60</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>54</v>
@@ -19633,7 +19630,7 @@
         <v>212</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -19641,10 +19638,10 @@
         <v>58</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>54</v>
@@ -19659,7 +19656,7 @@
         <v>213</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -19667,10 +19664,10 @@
         <v>55</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>54</v>
@@ -19685,18 +19682,18 @@
         <v>221</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>54</v>
@@ -19711,18 +19708,18 @@
         <v>221</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>47</v>
@@ -19731,24 +19728,24 @@
         <v>50</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G60" s="1">
         <v>312</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>47</v>
@@ -19757,13 +19754,13 @@
         <v>50</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G61" s="1">
         <v>313</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -19771,10 +19768,10 @@
         <v>51</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>47</v>
@@ -19789,18 +19786,18 @@
         <v>314</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>47</v>
@@ -19809,13 +19806,13 @@
         <v>50</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G63" s="1">
         <v>315</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -19823,10 +19820,10 @@
         <v>48</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>47</v>
@@ -19841,111 +19838,111 @@
         <v>321</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G65" s="1">
         <v>331</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D66" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E66" t="s">
         <v>147</v>
       </c>
       <c r="F66" t="s">
-        <v>148</v>
+        <v>387</v>
       </c>
       <c r="G66">
         <v>411</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D67" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E67" t="s">
         <v>147</v>
       </c>
       <c r="F67" t="s">
-        <v>250</v>
+        <v>387</v>
       </c>
       <c r="G67">
         <v>411</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D68" t="s">
         <v>247</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="D68" t="s">
-        <v>249</v>
       </c>
       <c r="E68" t="s">
         <v>147</v>
       </c>
       <c r="F68" t="s">
-        <v>250</v>
+        <v>387</v>
       </c>
       <c r="G68">
         <v>411</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
@@ -19956,48 +19953,48 @@
         <v>141</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D69" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E69" t="s">
         <v>147</v>
       </c>
       <c r="F69" t="s">
-        <v>148</v>
+        <v>387</v>
       </c>
       <c r="G69">
         <v>411</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B70" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D70" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E70" t="s">
         <v>147</v>
       </c>
       <c r="F70" t="s">
-        <v>149</v>
+        <v>387</v>
       </c>
       <c r="G70">
         <v>411</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
@@ -20005,25 +20002,25 @@
         <v>144</v>
       </c>
       <c r="B71" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D71" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E71" t="s">
         <v>147</v>
       </c>
       <c r="F71" t="s">
-        <v>149</v>
+        <v>388</v>
       </c>
       <c r="G71">
         <v>412</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
@@ -20031,181 +20028,181 @@
         <v>145</v>
       </c>
       <c r="B72" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D72" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E72" t="s">
         <v>147</v>
       </c>
       <c r="F72" t="s">
-        <v>149</v>
+        <v>388</v>
       </c>
       <c r="G72">
         <v>412</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B73" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D73" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E73" t="s">
         <v>147</v>
       </c>
       <c r="F73" t="s">
-        <v>149</v>
+        <v>388</v>
       </c>
       <c r="G73">
         <v>412</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B74" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D74" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E74" t="s">
         <v>147</v>
       </c>
       <c r="F74" t="s">
-        <v>149</v>
+        <v>388</v>
       </c>
       <c r="G74">
         <v>412</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B75" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D75" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E75" t="s">
         <v>147</v>
       </c>
       <c r="F75" t="s">
-        <v>149</v>
+        <v>388</v>
       </c>
       <c r="G75">
         <v>412</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B76" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D76" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E76" t="s">
         <v>147</v>
       </c>
       <c r="F76" t="s">
-        <v>149</v>
+        <v>388</v>
       </c>
       <c r="G76">
         <v>412</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B77" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D77" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E77" t="s">
         <v>147</v>
       </c>
       <c r="F77" t="s">
-        <v>149</v>
+        <v>388</v>
       </c>
       <c r="G77">
         <v>412</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B78" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D78" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E78" t="s">
         <v>147</v>
       </c>
       <c r="F78" t="s">
-        <v>149</v>
+        <v>388</v>
       </c>
       <c r="G78">
         <v>412</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
@@ -20213,10 +20210,10 @@
         <v>44</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>31</v>
@@ -20231,18 +20228,18 @@
         <v>511</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>31</v>
@@ -20257,18 +20254,18 @@
         <v>511</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>31</v>
@@ -20283,7 +20280,7 @@
         <v>511</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
@@ -20291,10 +20288,10 @@
         <v>11</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>31</v>
@@ -20309,18 +20306,18 @@
         <v>511</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>31</v>
@@ -20335,7 +20332,7 @@
         <v>511</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
@@ -20346,7 +20343,7 @@
         <v>43</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>31</v>
@@ -20361,7 +20358,7 @@
         <v>511</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -20372,7 +20369,7 @@
         <v>42</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>31</v>
@@ -20387,7 +20384,7 @@
         <v>511</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
@@ -20398,7 +20395,7 @@
         <v>41</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>31</v>
@@ -20413,7 +20410,7 @@
         <v>511</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
@@ -20424,7 +20421,7 @@
         <v>40</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>31</v>
@@ -20439,7 +20436,7 @@
         <v>511</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
@@ -20450,7 +20447,7 @@
         <v>39</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>31</v>
@@ -20465,18 +20462,18 @@
         <v>511</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>31</v>
@@ -20491,18 +20488,18 @@
         <v>511</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>31</v>
@@ -20517,18 +20514,18 @@
         <v>511</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>31</v>
@@ -20543,18 +20540,18 @@
         <v>511</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>31</v>
@@ -20569,7 +20566,7 @@
         <v>511</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
@@ -20577,10 +20574,10 @@
         <v>140</v>
       </c>
       <c r="B93" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D93" t="s">
         <v>31</v>
@@ -20595,7 +20592,7 @@
         <v>512</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
@@ -20606,7 +20603,7 @@
         <v>142</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D94" t="s">
         <v>31</v>
@@ -20621,7 +20618,7 @@
         <v>512</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
@@ -20632,7 +20629,7 @@
         <v>143</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D95" t="s">
         <v>31</v>
@@ -20647,7 +20644,7 @@
         <v>512</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
@@ -20655,10 +20652,10 @@
         <v>146</v>
       </c>
       <c r="B96" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D96" t="s">
         <v>31</v>
@@ -20673,7 +20670,7 @@
         <v>512</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
@@ -20681,10 +20678,10 @@
         <v>37</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>31</v>
@@ -20699,7 +20696,7 @@
         <v>512</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
@@ -20707,10 +20704,10 @@
         <v>36</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>31</v>
@@ -20725,18 +20722,18 @@
         <v>512</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D99" t="s">
         <v>31</v>
@@ -20751,7 +20748,7 @@
         <v>512</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
@@ -20759,10 +20756,10 @@
         <v>35</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>31</v>
@@ -20777,7 +20774,7 @@
         <v>512</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
@@ -20785,10 +20782,10 @@
         <v>32</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>31</v>
@@ -20803,7 +20800,7 @@
         <v>521</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
@@ -20814,7 +20811,7 @@
         <v>28</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>22</v>
@@ -20829,7 +20826,7 @@
         <v>611</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
@@ -20837,10 +20834,10 @@
         <v>27</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>22</v>
@@ -20855,7 +20852,7 @@
         <v>611</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
@@ -20866,7 +20863,7 @@
         <v>25</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>22</v>
@@ -20881,18 +20878,18 @@
         <v>612</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>22</v>
@@ -20907,7 +20904,7 @@
         <v>613</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
@@ -20918,7 +20915,7 @@
         <v>23</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>22</v>
@@ -20933,18 +20930,18 @@
         <v>613</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>22</v>
@@ -20959,7 +20956,7 @@
         <v>613</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
@@ -20970,7 +20967,7 @@
         <v>0</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>135</v>
@@ -20985,7 +20982,7 @@
         <v>988</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
@@ -20996,7 +20993,7 @@
         <v>1</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>135</v>
@@ -21011,7 +21008,7 @@
         <v>989</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
@@ -21022,7 +21019,7 @@
         <v>2</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>5</v>
@@ -21037,7 +21034,7 @@
         <v>997</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
@@ -21048,7 +21045,7 @@
         <v>3</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>5</v>
@@ -21063,7 +21060,7 @@
         <v>998</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
@@ -21074,7 +21071,7 @@
         <v>10</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>5</v>
@@ -21089,7 +21086,7 @@
         <v>999</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
@@ -21100,7 +21097,7 @@
         <v>9</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>5</v>
@@ -21115,7 +21112,7 @@
         <v>999</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
@@ -21126,7 +21123,7 @@
         <v>8</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>5</v>
@@ -21141,7 +21138,7 @@
         <v>999</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
@@ -21152,7 +21149,7 @@
         <v>7</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>5</v>
@@ -21167,7 +21164,7 @@
         <v>999</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
@@ -21178,7 +21175,7 @@
         <v>6</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>5</v>
@@ -21193,7 +21190,7 @@
         <v>999</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
